--- a/data_output/PYLL/PYLL_EU/EU_PYLL_(0-4)-(85-89)_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_(0-4)-(85-89)_['Female', 'Male', 'Total'].xlsx
@@ -169,13 +169,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>17981.0 (±4249.1)</t>
-  </si>
-  <si>
-    <t>44359.8 (±5073.4)</t>
-  </si>
-  <si>
-    <t>62281.5 (±7850.9)</t>
+    <t>16979.5 (±4418.3)</t>
+  </si>
+  <si>
+    <t>42985.4 (±5586.8)</t>
+  </si>
+  <si>
+    <t>59923.3 (±8541.9)</t>
   </si>
   <si>
     <t>38526.5 (±6312.1)</t>
@@ -196,22 +196,22 @@
     <t>81709.5 (±22145.0)</t>
   </si>
   <si>
-    <t>56564.3 (±14943.3)</t>
-  </si>
-  <si>
-    <t>71864.4 (±18243.5)</t>
-  </si>
-  <si>
-    <t>129715.1 (±31186.9)</t>
-  </si>
-  <si>
-    <t>87207.3 (±14421.8)</t>
+    <t>56598.8 (±14943.3)</t>
+  </si>
+  <si>
+    <t>71872.7 (±18243.5)</t>
+  </si>
+  <si>
+    <t>129756.6 (±31186.9)</t>
+  </si>
+  <si>
+    <t>87261.4 (±14421.8)</t>
   </si>
   <si>
     <t>120675.0 (±16809.5)</t>
   </si>
   <si>
-    <t>215184.2 (±30250.1)</t>
+    <t>215233.4 (±30250.1)</t>
   </si>
   <si>
     <t>19679.5 (±8557.6)</t>
@@ -232,13 +232,13 @@
     <t>6990.7 (±2983.4)</t>
   </si>
   <si>
-    <t>73344.1 (±18448.1)</t>
-  </si>
-  <si>
-    <t>103442.2 (±20823.3)</t>
-  </si>
-  <si>
-    <t>182636.6 (±37384.4)</t>
+    <t>73373.7 (±18448.1)</t>
+  </si>
+  <si>
+    <t>103511.1 (±20823.3)</t>
+  </si>
+  <si>
+    <t>182739.9 (±37384.4)</t>
   </si>
   <si>
     <t>8611.5 (±3098.2)</t>
@@ -250,13 +250,13 @@
     <t>21603.7 (±9082.6)</t>
   </si>
   <si>
-    <t>5441.8 (±2909.1)</t>
-  </si>
-  <si>
-    <t>5085.1 (±2819.9)</t>
-  </si>
-  <si>
-    <t>10218.6 (±5399.3)</t>
+    <t>5501.3 (±2909.1)</t>
+  </si>
+  <si>
+    <t>5213.7 (±2819.9)</t>
+  </si>
+  <si>
+    <t>10417.5 (±5399.3)</t>
   </si>
   <si>
     <t>11150.2 (±5214.5)</t>
@@ -268,13 +268,13 @@
     <t>27950.3 (±10611.5)</t>
   </si>
   <si>
-    <t>183376.1 (±49339.3)</t>
-  </si>
-  <si>
-    <t>274232.6 (±66866.6)</t>
-  </si>
-  <si>
-    <t>471256.5 (±116464.7)</t>
+    <t>183543.9 (±49339.3)</t>
+  </si>
+  <si>
+    <t>274447.4 (±66866.6)</t>
+  </si>
+  <si>
+    <t>471649.1 (±116464.7)</t>
   </si>
   <si>
     <t>1248.3 (±1666.3)</t>
@@ -316,22 +316,22 @@
     <t>2477.2 (±1576.4)</t>
   </si>
   <si>
-    <t>313039.9 (±70253.6)</t>
-  </si>
-  <si>
-    <t>526401.9 (±66277.4)</t>
-  </si>
-  <si>
-    <t>868001.3 (±132785.4)</t>
-  </si>
-  <si>
-    <t>3586.8 (±1620.1)</t>
-  </si>
-  <si>
-    <t>3758.7 (±2075.5)</t>
-  </si>
-  <si>
-    <t>6979.0 (±5006.9)</t>
+    <t>313670.3 (±70253.6)</t>
+  </si>
+  <si>
+    <t>527596.6 (±66277.4)</t>
+  </si>
+  <si>
+    <t>869892.2 (±132785.4)</t>
+  </si>
+  <si>
+    <t>3881.5 (±1922.2)</t>
+  </si>
+  <si>
+    <t>4645.9 (±2719.3)</t>
+  </si>
+  <si>
+    <t>8439.4 (±5006.9)</t>
   </si>
   <si>
     <t>19215.0 (±8338.2)</t>
@@ -352,40 +352,40 @@
     <t>5363.6 (±3221.0)</t>
   </si>
   <si>
-    <t>2054.1 (±1419.4)</t>
-  </si>
-  <si>
-    <t>3956.3 (±1788.5)</t>
-  </si>
-  <si>
-    <t>5974.1 (±2785.3)</t>
-  </si>
-  <si>
-    <t>3862.5 (±1393.6)</t>
-  </si>
-  <si>
-    <t>6146.4 (±2367.4)</t>
-  </si>
-  <si>
-    <t>10028.2 (±2887.2)</t>
-  </si>
-  <si>
-    <t>65016.2 (±18218.9)</t>
-  </si>
-  <si>
-    <t>102786.8 (±20742.9)</t>
-  </si>
-  <si>
-    <t>167679.1 (±39076.7)</t>
-  </si>
-  <si>
-    <t>4553.7 (±3607.4)</t>
-  </si>
-  <si>
-    <t>6449.2 (±3248.7)</t>
-  </si>
-  <si>
-    <t>10605.4 (±6961.6)</t>
+    <t>2095.8 (±1419.4)</t>
+  </si>
+  <si>
+    <t>3949.7 (±1788.5)</t>
+  </si>
+  <si>
+    <t>6007.7 (±2785.3)</t>
+  </si>
+  <si>
+    <t>3640.4 (±1393.6)</t>
+  </si>
+  <si>
+    <t>5686.6 (±2367.4)</t>
+  </si>
+  <si>
+    <t>9356.2 (±2887.2)</t>
+  </si>
+  <si>
+    <t>65278.8 (±18124.5)</t>
+  </si>
+  <si>
+    <t>104431.1 (±20808.4)</t>
+  </si>
+  <si>
+    <t>169793.3 (±39057.2)</t>
+  </si>
+  <si>
+    <t>4613.7 (±3964.2)</t>
+  </si>
+  <si>
+    <t>6373.5 (±3249.8)</t>
+  </si>
+  <si>
+    <t>10587.1 (±6956.3)</t>
   </si>
   <si>
     <t>327271.7 (±69810.8)</t>
@@ -406,13 +406,13 @@
     <t>108795.7 (±23423.4)</t>
   </si>
   <si>
-    <t>169694.4 (±33669.7)</t>
-  </si>
-  <si>
-    <t>272538.5 (±43481.5)</t>
-  </si>
-  <si>
-    <t>462136.5 (±75790.6)</t>
+    <t>170212.7 (±33669.7)</t>
+  </si>
+  <si>
+    <t>273195.1 (±43481.5)</t>
+  </si>
+  <si>
+    <t>463350.3 (±75790.6)</t>
   </si>
   <si>
     <t>35636.3 (±12575.0)</t>
@@ -424,31 +424,31 @@
     <t>114456.5 (±34367.8)</t>
   </si>
   <si>
-    <t>31973.2 (±9693.9)</t>
-  </si>
-  <si>
-    <t>38023.5 (±7216.4)</t>
-  </si>
-  <si>
-    <t>71022.3 (±11401.1)</t>
-  </si>
-  <si>
-    <t>12535.2 (±3540.4)</t>
-  </si>
-  <si>
-    <t>16563.1 (±4708.2)</t>
-  </si>
-  <si>
-    <t>29581.8 (±6247.2)</t>
-  </si>
-  <si>
-    <t>302123.8 (±47606.1)</t>
-  </si>
-  <si>
-    <t>383628.7 (±54697.7)</t>
-  </si>
-  <si>
-    <t>701240.7 (±98219.7)</t>
+    <t>31991.4 (±9693.9)</t>
+  </si>
+  <si>
+    <t>38055.2 (±7216.4)</t>
+  </si>
+  <si>
+    <t>71073.8 (±11401.1)</t>
+  </si>
+  <si>
+    <t>12666.4 (±3540.4)</t>
+  </si>
+  <si>
+    <t>16816.5 (±4708.2)</t>
+  </si>
+  <si>
+    <t>29858.7 (±6247.2)</t>
+  </si>
+  <si>
+    <t>277662.6 (±48046.6)</t>
+  </si>
+  <si>
+    <t>366059.2 (±54697.7)</t>
+  </si>
+  <si>
+    <t>659752.0 (±99568.6)</t>
   </si>
   <si>
     <t>25205.2 (±5836.4)</t>
@@ -469,13 +469,13 @@
     <t>64630.2 (±14735.7)</t>
   </si>
   <si>
-    <t>9.51 (±0.81)</t>
-  </si>
-  <si>
-    <t>11.57 (±0.32)</t>
-  </si>
-  <si>
-    <t>10.89 (±0.4)</t>
+    <t>9.33 (±0.88)</t>
+  </si>
+  <si>
+    <t>11.39 (±0.42)</t>
+  </si>
+  <si>
+    <t>10.71 (±0.51)</t>
   </si>
   <si>
     <t>14.0 (±0.24)</t>
@@ -496,7 +496,7 @@
     <t>12.18 (±0.35)</t>
   </si>
   <si>
-    <t>10.6 (±0.62)</t>
+    <t>10.61 (±0.61)</t>
   </si>
   <si>
     <t>10.79 (±0.6)</t>
@@ -535,10 +535,10 @@
     <t>11.89 (±0.29)</t>
   </si>
   <si>
-    <t>10.81 (±0.5)</t>
-  </si>
-  <si>
-    <t>11.61 (±0.37)</t>
+    <t>10.82 (±0.49)</t>
+  </si>
+  <si>
+    <t>11.62 (±0.36)</t>
   </si>
   <si>
     <t>12.44 (±0.66)</t>
@@ -550,13 +550,13 @@
     <t>10.54 (±0.68)</t>
   </si>
   <si>
-    <t>18.74 (±1.47)</t>
-  </si>
-  <si>
-    <t>13.74 (±1.23)</t>
-  </si>
-  <si>
-    <t>16.51 (±0.98)</t>
+    <t>18.75 (±1.45)</t>
+  </si>
+  <si>
+    <t>13.87 (±1.17)</t>
+  </si>
+  <si>
+    <t>16.59 (±0.95)</t>
   </si>
   <si>
     <t>16.24 (±0.57)</t>
@@ -619,19 +619,19 @@
     <t>11.19 (±0.21)</t>
   </si>
   <si>
-    <t>11.47 (±0.24)</t>
+    <t>11.47 (±0.25)</t>
   </si>
   <si>
     <t>11.75 (±0.21)</t>
   </si>
   <si>
-    <t>9.45 (±0.17)</t>
-  </si>
-  <si>
-    <t>9.66 (±0.44)</t>
-  </si>
-  <si>
-    <t>9.7 (±0.66)</t>
+    <t>9.36 (±0.25)</t>
+  </si>
+  <si>
+    <t>10.11 (±0.88)</t>
+  </si>
+  <si>
+    <t>10.06 (±0.48)</t>
   </si>
   <si>
     <t>12.82 (±0.15)</t>
@@ -652,40 +652,40 @@
     <t>17.08 (±1.62)</t>
   </si>
   <si>
-    <t>13.02 (±2.17)</t>
-  </si>
-  <si>
-    <t>13.99 (±1.1)</t>
-  </si>
-  <si>
-    <t>13.75 (±1.4)</t>
-  </si>
-  <si>
-    <t>12.36 (±1.0)</t>
-  </si>
-  <si>
-    <t>10.82 (±0.9)</t>
-  </si>
-  <si>
-    <t>11.73 (±1.0)</t>
-  </si>
-  <si>
-    <t>11.43 (±0.9)</t>
-  </si>
-  <si>
-    <t>10.88 (±0.49)</t>
-  </si>
-  <si>
-    <t>11.15 (±0.72)</t>
-  </si>
-  <si>
-    <t>15.42 (±0.09)</t>
-  </si>
-  <si>
-    <t>13.87 (±0.21)</t>
-  </si>
-  <si>
-    <t>14.13 (±0.39)</t>
+    <t>13.03 (±2.15)</t>
+  </si>
+  <si>
+    <t>13.92 (±1.11)</t>
+  </si>
+  <si>
+    <t>13.7 (±1.41)</t>
+  </si>
+  <si>
+    <t>12.62 (±1.01)</t>
+  </si>
+  <si>
+    <t>10.91 (±0.94)</t>
+  </si>
+  <si>
+    <t>11.86 (±1.05)</t>
+  </si>
+  <si>
+    <t>11.43 (±0.89)</t>
+  </si>
+  <si>
+    <t>10.97 (±0.48)</t>
+  </si>
+  <si>
+    <t>11.22 (±0.71)</t>
+  </si>
+  <si>
+    <t>15.5 (±0.55)</t>
+  </si>
+  <si>
+    <t>13.92 (±0.23)</t>
+  </si>
+  <si>
+    <t>14.2 (±0.37)</t>
   </si>
   <si>
     <t>13.78 (±0.2)</t>
@@ -727,28 +727,28 @@
     <t>13.02 (±0.69)</t>
   </si>
   <si>
-    <t>11.12 (±0.43)</t>
+    <t>11.13 (±0.43)</t>
   </si>
   <si>
     <t>12.18 (±0.13)</t>
   </si>
   <si>
-    <t>10.82 (±0.77)</t>
-  </si>
-  <si>
-    <t>11.03 (±0.93)</t>
-  </si>
-  <si>
-    <t>11.15 (±0.61)</t>
-  </si>
-  <si>
-    <t>13.29 (±0.14)</t>
-  </si>
-  <si>
-    <t>12.42 (±0.15)</t>
-  </si>
-  <si>
-    <t>13.09 (±0.15)</t>
+    <t>10.84 (±0.76)</t>
+  </si>
+  <si>
+    <t>11.1 (±0.92)</t>
+  </si>
+  <si>
+    <t>11.18 (±0.6)</t>
+  </si>
+  <si>
+    <t>13.12 (±0.19)</t>
+  </si>
+  <si>
+    <t>12.58 (±0.14)</t>
+  </si>
+  <si>
+    <t>13.13 (±0.18)</t>
   </si>
   <si>
     <t>11.02 (±0.02)</t>
@@ -769,13 +769,13 @@
     <t>10.38 (±0.94)</t>
   </si>
   <si>
-    <t>1273.8 (±301.0)</t>
-  </si>
-  <si>
-    <t>3150.3 (±360.3)</t>
-  </si>
-  <si>
-    <t>2208.8 (±278.4)</t>
+    <t>1202.9 (±313.0)</t>
+  </si>
+  <si>
+    <t>3052.7 (±396.8)</t>
+  </si>
+  <si>
+    <t>2125.2 (±302.9)</t>
   </si>
   <si>
     <t>2494.8 (±408.7)</t>
@@ -796,22 +796,22 @@
     <t>926.5 (±251.1)</t>
   </si>
   <si>
-    <t>982.7 (±259.6)</t>
-  </si>
-  <si>
-    <t>1272.7 (±323.1)</t>
-  </si>
-  <si>
-    <t>1137.6 (±273.5)</t>
-  </si>
-  <si>
-    <t>2454.1 (±405.8)</t>
+    <t>983.3 (±259.6)</t>
+  </si>
+  <si>
+    <t>1272.9 (±323.1)</t>
+  </si>
+  <si>
+    <t>1138.0 (±273.5)</t>
+  </si>
+  <si>
+    <t>2455.6 (±405.8)</t>
   </si>
   <si>
     <t>3594.5 (±500.7)</t>
   </si>
   <si>
-    <t>3113.8 (±437.7)</t>
+    <t>3114.5 (±437.7)</t>
   </si>
   <si>
     <t>952.0 (±414.0)</t>
@@ -832,13 +832,13 @@
     <t>800.1 (±341.4)</t>
   </si>
   <si>
-    <t>1364.6 (±343.2)</t>
-  </si>
-  <si>
-    <t>1968.5 (±396.3)</t>
-  </si>
-  <si>
-    <t>1718.2 (±351.7)</t>
+    <t>1365.2 (±343.2)</t>
+  </si>
+  <si>
+    <t>1969.8 (±396.3)</t>
+  </si>
+  <si>
+    <t>1719.2 (±351.7)</t>
   </si>
   <si>
     <t>292.9 (±105.4)</t>
@@ -850,13 +850,13 @@
     <t>369.1 (±155.2)</t>
   </si>
   <si>
-    <t>788.5 (±421.5)</t>
-  </si>
-  <si>
-    <t>810.9 (±449.7)</t>
-  </si>
-  <si>
-    <t>775.8 (±409.9)</t>
+    <t>797.1 (±421.5)</t>
+  </si>
+  <si>
+    <t>831.4 (±449.7)</t>
+  </si>
+  <si>
+    <t>790.9 (±409.9)</t>
   </si>
   <si>
     <t>404.4 (±189.1)</t>
@@ -868,13 +868,13 @@
     <t>510.9 (±194.0)</t>
   </si>
   <si>
-    <t>537.7 (±144.7)</t>
-  </si>
-  <si>
-    <t>849.7 (±207.2)</t>
-  </si>
-  <si>
-    <t>709.9 (±175.5)</t>
+    <t>538.2 (±144.7)</t>
+  </si>
+  <si>
+    <t>850.3 (±207.2)</t>
+  </si>
+  <si>
+    <t>710.5 (±175.5)</t>
   </si>
   <si>
     <t>65.0 (±86.8)</t>
@@ -916,22 +916,22 @@
     <t>684.6 (±435.7)</t>
   </si>
   <si>
-    <t>1074.7 (±241.2)</t>
-  </si>
-  <si>
-    <t>1858.4 (±234.0)</t>
-  </si>
-  <si>
-    <t>1474.9 (±225.6)</t>
-  </si>
-  <si>
-    <t>353.5 (±159.7)</t>
-  </si>
-  <si>
-    <t>427.9 (±236.3)</t>
-  </si>
-  <si>
-    <t>368.7 (±264.5)</t>
+    <t>1076.9 (±241.2)</t>
+  </si>
+  <si>
+    <t>1862.6 (±234.0)</t>
+  </si>
+  <si>
+    <t>1478.2 (±225.6)</t>
+  </si>
+  <si>
+    <t>382.5 (±189.4)</t>
+  </si>
+  <si>
+    <t>528.9 (±309.6)</t>
+  </si>
+  <si>
+    <t>445.8 (±264.5)</t>
   </si>
   <si>
     <t>1305.7 (±566.6)</t>
@@ -952,40 +952,40 @@
     <t>862.4 (±517.9)</t>
   </si>
   <si>
-    <t>833.2 (±575.7)</t>
-  </si>
-  <si>
-    <t>1494.7 (±675.7)</t>
-  </si>
-  <si>
-    <t>1168.6 (±544.8)</t>
-  </si>
-  <si>
-    <t>1234.5 (±445.4)</t>
-  </si>
-  <si>
-    <t>2005.9 (±772.6)</t>
-  </si>
-  <si>
-    <t>1619.3 (±466.2)</t>
-  </si>
-  <si>
-    <t>750.4 (±210.3)</t>
-  </si>
-  <si>
-    <t>1194.2 (±241.0)</t>
-  </si>
-  <si>
-    <t>970.8 (±226.2)</t>
-  </si>
-  <si>
-    <t>173.2 (±137.2)</t>
-  </si>
-  <si>
-    <t>239.5 (±120.6)</t>
-  </si>
-  <si>
-    <t>199.3 (±130.8)</t>
+    <t>850.1 (±575.7)</t>
+  </si>
+  <si>
+    <t>1492.2 (±675.7)</t>
+  </si>
+  <si>
+    <t>1175.2 (±544.8)</t>
+  </si>
+  <si>
+    <t>1163.5 (±445.4)</t>
+  </si>
+  <si>
+    <t>1855.8 (±772.6)</t>
+  </si>
+  <si>
+    <t>1510.7 (±466.2)</t>
+  </si>
+  <si>
+    <t>753.4 (±209.2)</t>
+  </si>
+  <si>
+    <t>1213.3 (±241.7)</t>
+  </si>
+  <si>
+    <t>983.1 (±226.1)</t>
+  </si>
+  <si>
+    <t>175.5 (±150.8)</t>
+  </si>
+  <si>
+    <t>236.7 (±120.7)</t>
+  </si>
+  <si>
+    <t>198.9 (±130.7)</t>
   </si>
   <si>
     <t>1688.7 (±360.2)</t>
@@ -1006,13 +1006,13 @@
     <t>1067.8 (±229.9)</t>
   </si>
   <si>
-    <t>1735.5 (±344.3)</t>
-  </si>
-  <si>
-    <t>2894.4 (±461.8)</t>
-  </si>
-  <si>
-    <t>2407.7 (±394.9)</t>
+    <t>1740.8 (±344.3)</t>
+  </si>
+  <si>
+    <t>2901.3 (±461.8)</t>
+  </si>
+  <si>
+    <t>2414.0 (±394.9)</t>
   </si>
   <si>
     <t>1010.9 (±356.7)</t>
@@ -1024,31 +1024,31 @@
     <t>1662.6 (±499.2)</t>
   </si>
   <si>
-    <t>1153.3 (±349.7)</t>
-  </si>
-  <si>
-    <t>1430.6 (±271.5)</t>
-  </si>
-  <si>
-    <t>1307.9 (±210.0)</t>
-  </si>
-  <si>
-    <t>1216.1 (±343.5)</t>
-  </si>
-  <si>
-    <t>1582.8 (±449.9)</t>
-  </si>
-  <si>
-    <t>1424.1 (±300.7)</t>
-  </si>
-  <si>
-    <t>1273.5 (±200.7)</t>
-  </si>
-  <si>
-    <t>1666.4 (±237.6)</t>
-  </si>
-  <si>
-    <t>1500.1 (±210.1)</t>
+    <t>1153.9 (±349.7)</t>
+  </si>
+  <si>
+    <t>1431.8 (±271.5)</t>
+  </si>
+  <si>
+    <t>1308.8 (±210.0)</t>
+  </si>
+  <si>
+    <t>1228.8 (±343.5)</t>
+  </si>
+  <si>
+    <t>1607.0 (±449.9)</t>
+  </si>
+  <si>
+    <t>1437.4 (±300.7)</t>
+  </si>
+  <si>
+    <t>1170.4 (±202.5)</t>
+  </si>
+  <si>
+    <t>1590.1 (±237.6)</t>
+  </si>
+  <si>
+    <t>1411.4 (±213.0)</t>
   </si>
   <si>
     <t>497.9 (±115.3)</t>
@@ -1482,31 +1482,31 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>1890.6</v>
+        <v>1820.6</v>
       </c>
       <c r="D2">
-        <v>263.7</v>
+        <v>275.7</v>
       </c>
       <c r="E2">
-        <v>17981</v>
+        <v>16979.5</v>
       </c>
       <c r="F2">
-        <v>4249.099999999999</v>
+        <v>4418.3</v>
       </c>
       <c r="G2">
-        <v>9.51</v>
+        <v>9.33</v>
       </c>
       <c r="H2">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="I2">
         <v>1411583</v>
       </c>
       <c r="J2">
-        <v>1273.8</v>
+        <v>1202.9</v>
       </c>
       <c r="K2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
@@ -1526,31 +1526,31 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>3832.400000000001</v>
+        <v>3774.400000000001</v>
       </c>
       <c r="D3">
-        <v>325.1</v>
+        <v>339.2</v>
       </c>
       <c r="E3">
-        <v>44359.8</v>
+        <v>42985.4</v>
       </c>
       <c r="F3">
-        <v>5073.399999999999</v>
+        <v>5586.8</v>
       </c>
       <c r="G3">
-        <v>11.57</v>
+        <v>11.39</v>
       </c>
       <c r="H3">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I3">
         <v>1408097</v>
       </c>
       <c r="J3">
-        <v>3150.3</v>
+        <v>3052.7</v>
       </c>
       <c r="K3">
-        <v>360.3</v>
+        <v>396.8</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
@@ -1570,31 +1570,31 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>5720.6</v>
+        <v>5593.6</v>
       </c>
       <c r="D4">
-        <v>490.8</v>
+        <v>507.4</v>
       </c>
       <c r="E4">
-        <v>62281.5</v>
+        <v>59923.3</v>
       </c>
       <c r="F4">
-        <v>7850.900000000001</v>
+        <v>8541.900000000001</v>
       </c>
       <c r="G4">
-        <v>10.89</v>
+        <v>10.71</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I4">
         <v>2819680</v>
       </c>
       <c r="J4">
-        <v>2208.8</v>
+        <v>2125.2</v>
       </c>
       <c r="K4">
-        <v>278.4</v>
+        <v>302.9</v>
       </c>
       <c r="L4" t="s">
         <v>53</v>
@@ -1878,28 +1878,28 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>5334.200000000001</v>
+        <v>5336.200000000001</v>
       </c>
       <c r="D11">
         <v>1041</v>
       </c>
       <c r="E11">
-        <v>56564.3</v>
+        <v>56598.8</v>
       </c>
       <c r="F11">
         <v>14943.3</v>
       </c>
       <c r="G11">
-        <v>10.6</v>
+        <v>10.61</v>
       </c>
       <c r="H11">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I11">
         <v>5756156</v>
       </c>
       <c r="J11">
-        <v>982.7</v>
+        <v>983.3</v>
       </c>
       <c r="K11">
         <v>259.6</v>
@@ -1922,13 +1922,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>6662.4</v>
+        <v>6663.4</v>
       </c>
       <c r="D12">
         <v>1247.1</v>
       </c>
       <c r="E12">
-        <v>71864.40000000001</v>
+        <v>71872.70000000001</v>
       </c>
       <c r="F12">
         <v>18243.5</v>
@@ -1943,7 +1943,7 @@
         <v>5646433</v>
       </c>
       <c r="J12">
-        <v>1272.7</v>
+        <v>1272.9</v>
       </c>
       <c r="K12">
         <v>323.1</v>
@@ -1966,13 +1966,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>11956.4</v>
+        <v>11959.4</v>
       </c>
       <c r="D13">
         <v>2071.8</v>
       </c>
       <c r="E13">
-        <v>129715.1</v>
+        <v>129756.6</v>
       </c>
       <c r="F13">
         <v>31186.9</v>
@@ -1987,7 +1987,7 @@
         <v>11402589</v>
       </c>
       <c r="J13">
-        <v>1137.6</v>
+        <v>1138</v>
       </c>
       <c r="K13">
         <v>273.5</v>
@@ -2010,13 +2010,13 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>6376.4</v>
+        <v>6379.4</v>
       </c>
       <c r="D14">
         <v>1186.7</v>
       </c>
       <c r="E14">
-        <v>87207.3</v>
+        <v>87261.39999999999</v>
       </c>
       <c r="F14">
         <v>14421.8</v>
@@ -2031,7 +2031,7 @@
         <v>3553509</v>
       </c>
       <c r="J14">
-        <v>2454.1</v>
+        <v>2455.6</v>
       </c>
       <c r="K14">
         <v>405.8</v>
@@ -2098,13 +2098,13 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>15980.8</v>
+        <v>15983.8</v>
       </c>
       <c r="D16">
         <v>2393.5</v>
       </c>
       <c r="E16">
-        <v>215184.2</v>
+        <v>215233.4</v>
       </c>
       <c r="F16">
         <v>30250.1</v>
@@ -2119,7 +2119,7 @@
         <v>6910766</v>
       </c>
       <c r="J16">
-        <v>3113.8</v>
+        <v>3114.5</v>
       </c>
       <c r="K16">
         <v>437.7</v>
@@ -2406,13 +2406,13 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>6168.4</v>
+        <v>6171.4</v>
       </c>
       <c r="D23">
         <v>1365</v>
       </c>
       <c r="E23">
-        <v>73344.10000000001</v>
+        <v>73373.7</v>
       </c>
       <c r="F23">
         <v>18448.1</v>
@@ -2427,7 +2427,7 @@
         <v>5374611</v>
       </c>
       <c r="J23">
-        <v>1364.6</v>
+        <v>1365.2</v>
       </c>
       <c r="K23">
         <v>343.2</v>
@@ -2450,28 +2450,28 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>9566</v>
+        <v>9570</v>
       </c>
       <c r="D24">
         <v>1418.9</v>
       </c>
       <c r="E24">
-        <v>103442.2</v>
+        <v>103511.1</v>
       </c>
       <c r="F24">
         <v>20823.3</v>
       </c>
       <c r="G24">
-        <v>10.81</v>
+        <v>10.82</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I24">
         <v>5254955</v>
       </c>
       <c r="J24">
-        <v>1968.5</v>
+        <v>1969.8</v>
       </c>
       <c r="K24">
         <v>396.3</v>
@@ -2494,28 +2494,28 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>15725</v>
+        <v>15732</v>
       </c>
       <c r="D25">
         <v>2638.8</v>
       </c>
       <c r="E25">
-        <v>182636.6</v>
+        <v>182739.9</v>
       </c>
       <c r="F25">
         <v>37384.39999999999</v>
       </c>
       <c r="G25">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="H25">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I25">
         <v>10629566</v>
       </c>
       <c r="J25">
-        <v>1718.2</v>
+        <v>1719.2</v>
       </c>
       <c r="K25">
         <v>351.7</v>
@@ -2670,28 +2670,28 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>290.4</v>
+        <v>293.4</v>
       </c>
       <c r="D29">
         <v>122.9</v>
       </c>
       <c r="E29">
-        <v>5441.799999999999</v>
+        <v>5501.3</v>
       </c>
       <c r="F29">
         <v>2909.1</v>
       </c>
       <c r="G29">
-        <v>18.74</v>
+        <v>18.75</v>
       </c>
       <c r="H29">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I29">
         <v>690140</v>
       </c>
       <c r="J29">
-        <v>788.5</v>
+        <v>797.1</v>
       </c>
       <c r="K29">
         <v>421.5</v>
@@ -2714,28 +2714,28 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>369.9999999999999</v>
+        <v>375.9999999999999</v>
       </c>
       <c r="D30">
         <v>158.2</v>
       </c>
       <c r="E30">
-        <v>5085.1</v>
+        <v>5213.7</v>
       </c>
       <c r="F30">
         <v>2819.9</v>
       </c>
       <c r="G30">
-        <v>13.74</v>
+        <v>13.87</v>
       </c>
       <c r="H30">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="I30">
         <v>627100</v>
       </c>
       <c r="J30">
-        <v>810.9</v>
+        <v>831.4</v>
       </c>
       <c r="K30">
         <v>449.7</v>
@@ -2758,28 +2758,28 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>618.8</v>
+        <v>627.8</v>
       </c>
       <c r="D31">
         <v>274.1</v>
       </c>
       <c r="E31">
-        <v>10218.6</v>
+        <v>10417.5</v>
       </c>
       <c r="F31">
         <v>5399.3</v>
       </c>
       <c r="G31">
-        <v>16.51</v>
+        <v>16.59</v>
       </c>
       <c r="H31">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="I31">
         <v>1317240</v>
       </c>
       <c r="J31">
-        <v>775.8</v>
+        <v>790.9</v>
       </c>
       <c r="K31">
         <v>409.9</v>
@@ -2934,13 +2934,13 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>13314.6</v>
+        <v>13328.6</v>
       </c>
       <c r="D35">
         <v>3711.3</v>
       </c>
       <c r="E35">
-        <v>183376.1</v>
+        <v>183543.9</v>
       </c>
       <c r="F35">
         <v>49339.3</v>
@@ -2955,7 +2955,7 @@
         <v>34103672</v>
       </c>
       <c r="J35">
-        <v>537.7</v>
+        <v>538.2</v>
       </c>
       <c r="K35">
         <v>144.7</v>
@@ -2978,13 +2978,13 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>23553.4</v>
+        <v>23570.4</v>
       </c>
       <c r="D36">
         <v>4634.2</v>
       </c>
       <c r="E36">
-        <v>274232.6</v>
+        <v>274447.4</v>
       </c>
       <c r="F36">
         <v>66866.59999999999</v>
@@ -2999,7 +2999,7 @@
         <v>32275376</v>
       </c>
       <c r="J36">
-        <v>849.7</v>
+        <v>850.3</v>
       </c>
       <c r="K36">
         <v>207.2</v>
@@ -3022,13 +3022,13 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>36847</v>
+        <v>36878</v>
       </c>
       <c r="D37">
         <v>7980</v>
       </c>
       <c r="E37">
-        <v>471256.5</v>
+        <v>471649.1</v>
       </c>
       <c r="F37">
         <v>116464.7</v>
@@ -3043,7 +3043,7 @@
         <v>66379048</v>
       </c>
       <c r="J37">
-        <v>709.9</v>
+        <v>710.5</v>
       </c>
       <c r="K37">
         <v>175.5</v>
@@ -3638,13 +3638,13 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <v>27985.2</v>
+        <v>28039.2</v>
       </c>
       <c r="D51">
         <v>5637</v>
       </c>
       <c r="E51">
-        <v>313039.9</v>
+        <v>313670.3</v>
       </c>
       <c r="F51">
         <v>70253.60000000001</v>
@@ -3659,7 +3659,7 @@
         <v>29127637</v>
       </c>
       <c r="J51">
-        <v>1074.7</v>
+        <v>1076.9</v>
       </c>
       <c r="K51">
         <v>241.2</v>
@@ -3682,13 +3682,13 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <v>45901.6</v>
+        <v>45990.6</v>
       </c>
       <c r="D52">
         <v>4698.8</v>
       </c>
       <c r="E52">
-        <v>526401.9</v>
+        <v>527596.6</v>
       </c>
       <c r="F52">
         <v>66277.39999999999</v>
@@ -3697,13 +3697,13 @@
         <v>11.47</v>
       </c>
       <c r="H52">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I52">
         <v>28325684</v>
       </c>
       <c r="J52">
-        <v>1858.4</v>
+        <v>1862.6</v>
       </c>
       <c r="K52">
         <v>234</v>
@@ -3726,13 +3726,13 @@
         <v>50</v>
       </c>
       <c r="C53">
-        <v>73882.60000000001</v>
+        <v>74025.60000000001</v>
       </c>
       <c r="D53">
         <v>9812.700000000001</v>
       </c>
       <c r="E53">
-        <v>868001.3</v>
+        <v>869892.2</v>
       </c>
       <c r="F53">
         <v>132785.4</v>
@@ -3747,7 +3747,7 @@
         <v>58849945</v>
       </c>
       <c r="J53">
-        <v>1474.9</v>
+        <v>1478.2</v>
       </c>
       <c r="K53">
         <v>225.6</v>
@@ -3770,31 +3770,31 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>379.4</v>
+        <v>414.8</v>
       </c>
       <c r="D54">
-        <v>181.8</v>
+        <v>189.2</v>
       </c>
       <c r="E54">
-        <v>3586.8</v>
+        <v>3881.5</v>
       </c>
       <c r="F54">
-        <v>1620.1</v>
+        <v>1922.2</v>
       </c>
       <c r="G54">
-        <v>9.449999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H54">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I54">
         <v>1014773</v>
       </c>
       <c r="J54">
-        <v>353.5</v>
+        <v>382.5</v>
       </c>
       <c r="K54">
-        <v>159.7</v>
+        <v>189.4</v>
       </c>
       <c r="L54" t="s">
         <v>103</v>
@@ -3814,31 +3814,31 @@
         <v>49</v>
       </c>
       <c r="C55">
-        <v>389.2</v>
+        <v>459.4</v>
       </c>
       <c r="D55">
-        <v>188.4</v>
+        <v>211</v>
       </c>
       <c r="E55">
-        <v>3758.7</v>
+        <v>4645.9</v>
       </c>
       <c r="F55">
-        <v>2075.5</v>
+        <v>2719.3</v>
       </c>
       <c r="G55">
-        <v>9.66</v>
+        <v>10.11</v>
       </c>
       <c r="H55">
-        <v>0.44</v>
+        <v>0.88</v>
       </c>
       <c r="I55">
         <v>878334</v>
       </c>
       <c r="J55">
-        <v>427.9</v>
+        <v>528.9</v>
       </c>
       <c r="K55">
-        <v>236.3</v>
+        <v>309.6</v>
       </c>
       <c r="L55" t="s">
         <v>104</v>
@@ -3858,28 +3858,28 @@
         <v>50</v>
       </c>
       <c r="C56">
-        <v>719.5999999999999</v>
+        <v>838.5999999999999</v>
       </c>
       <c r="D56">
         <v>437.4</v>
       </c>
       <c r="E56">
-        <v>6979</v>
+        <v>8439.4</v>
       </c>
       <c r="F56">
         <v>5006.9</v>
       </c>
       <c r="G56">
-        <v>9.699999999999999</v>
+        <v>10.06</v>
       </c>
       <c r="H56">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="I56">
         <v>1893107</v>
       </c>
       <c r="J56">
-        <v>368.7</v>
+        <v>445.8</v>
       </c>
       <c r="K56">
         <v>264.5</v>
@@ -4166,28 +4166,28 @@
         <v>48</v>
       </c>
       <c r="C63">
-        <v>157.8</v>
+        <v>160.8</v>
       </c>
       <c r="D63">
         <v>70.8</v>
       </c>
       <c r="E63">
-        <v>2054.1</v>
+        <v>2095.8</v>
       </c>
       <c r="F63">
         <v>1419.4</v>
       </c>
       <c r="G63">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="H63">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="I63">
         <v>246538</v>
       </c>
       <c r="J63">
-        <v>833.2</v>
+        <v>850.1</v>
       </c>
       <c r="K63">
         <v>575.7</v>
@@ -4210,28 +4210,28 @@
         <v>49</v>
       </c>
       <c r="C64">
-        <v>282.8</v>
+        <v>283.8</v>
       </c>
       <c r="D64">
         <v>97.99999999999999</v>
       </c>
       <c r="E64">
-        <v>3956.3</v>
+        <v>3949.7</v>
       </c>
       <c r="F64">
         <v>1788.5</v>
       </c>
       <c r="G64">
-        <v>13.99</v>
+        <v>13.92</v>
       </c>
       <c r="H64">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="I64">
         <v>264688</v>
       </c>
       <c r="J64">
-        <v>1494.7</v>
+        <v>1492.2</v>
       </c>
       <c r="K64">
         <v>675.7</v>
@@ -4254,28 +4254,28 @@
         <v>50</v>
       </c>
       <c r="C65">
-        <v>434.6</v>
+        <v>438.6</v>
       </c>
       <c r="D65">
         <v>143.5</v>
       </c>
       <c r="E65">
-        <v>5974.1</v>
+        <v>6007.7</v>
       </c>
       <c r="F65">
         <v>2785.3</v>
       </c>
       <c r="G65">
-        <v>13.75</v>
+        <v>13.7</v>
       </c>
       <c r="H65">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I65">
         <v>511226</v>
       </c>
       <c r="J65">
-        <v>1168.6</v>
+        <v>1175.2</v>
       </c>
       <c r="K65">
         <v>544.8</v>
@@ -4298,28 +4298,28 @@
         <v>48</v>
       </c>
       <c r="C66">
-        <v>312.4</v>
+        <v>288.4</v>
       </c>
       <c r="D66">
         <v>80.90000000000001</v>
       </c>
       <c r="E66">
-        <v>3862.5</v>
+        <v>3640.400000000001</v>
       </c>
       <c r="F66">
         <v>1393.6</v>
       </c>
       <c r="G66">
-        <v>12.36</v>
+        <v>12.62</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I66">
         <v>312892</v>
       </c>
       <c r="J66">
-        <v>1234.5</v>
+        <v>1163.5</v>
       </c>
       <c r="K66">
         <v>445.4</v>
@@ -4342,28 +4342,28 @@
         <v>49</v>
       </c>
       <c r="C67">
-        <v>568.2</v>
+        <v>521.2</v>
       </c>
       <c r="D67">
         <v>158.2</v>
       </c>
       <c r="E67">
-        <v>6146.4</v>
+        <v>5686.599999999999</v>
       </c>
       <c r="F67">
         <v>2367.4</v>
       </c>
       <c r="G67">
-        <v>10.82</v>
+        <v>10.91</v>
       </c>
       <c r="H67">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I67">
         <v>306419</v>
       </c>
       <c r="J67">
-        <v>2005.9</v>
+        <v>1855.8</v>
       </c>
       <c r="K67">
         <v>772.6</v>
@@ -4386,28 +4386,28 @@
         <v>50</v>
       </c>
       <c r="C68">
-        <v>854.6</v>
+        <v>788.6</v>
       </c>
       <c r="D68">
         <v>160.1</v>
       </c>
       <c r="E68">
-        <v>10028.2</v>
+        <v>9356.199999999999</v>
       </c>
       <c r="F68">
         <v>2887.2</v>
       </c>
       <c r="G68">
-        <v>11.73</v>
+        <v>11.86</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="I68">
         <v>619311</v>
       </c>
       <c r="J68">
-        <v>1619.3</v>
+        <v>1510.7</v>
       </c>
       <c r="K68">
         <v>466.2</v>
@@ -4430,31 +4430,31 @@
         <v>48</v>
       </c>
       <c r="C69">
-        <v>5687</v>
+        <v>5709.4</v>
       </c>
       <c r="D69">
-        <v>1063.6</v>
+        <v>1060.7</v>
       </c>
       <c r="E69">
-        <v>65016.2</v>
+        <v>65278.8</v>
       </c>
       <c r="F69">
-        <v>18218.9</v>
+        <v>18124.5</v>
       </c>
       <c r="G69">
         <v>11.43</v>
       </c>
       <c r="H69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I69">
         <v>8664134</v>
       </c>
       <c r="J69">
-        <v>750.4</v>
+        <v>753.4</v>
       </c>
       <c r="K69">
-        <v>210.3</v>
+        <v>209.2</v>
       </c>
       <c r="L69" t="s">
         <v>118</v>
@@ -4474,31 +4474,31 @@
         <v>49</v>
       </c>
       <c r="C70">
-        <v>9450.599999999999</v>
+        <v>9518.799999999999</v>
       </c>
       <c r="D70">
-        <v>1414.2</v>
+        <v>1417</v>
       </c>
       <c r="E70">
-        <v>102786.8</v>
+        <v>104431.1</v>
       </c>
       <c r="F70">
-        <v>20742.9</v>
+        <v>20808.4</v>
       </c>
       <c r="G70">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="H70">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I70">
         <v>8607487</v>
       </c>
       <c r="J70">
-        <v>1194.2</v>
+        <v>1213.3</v>
       </c>
       <c r="K70">
-        <v>241</v>
+        <v>241.7</v>
       </c>
       <c r="L70" t="s">
         <v>119</v>
@@ -4518,31 +4518,31 @@
         <v>50</v>
       </c>
       <c r="C71">
-        <v>15037.4</v>
+        <v>15133</v>
       </c>
       <c r="D71">
-        <v>2377.8</v>
+        <v>2378.2</v>
       </c>
       <c r="E71">
-        <v>167679.1</v>
+        <v>169793.3</v>
       </c>
       <c r="F71">
-        <v>39076.7</v>
+        <v>39057.2</v>
       </c>
       <c r="G71">
-        <v>11.15</v>
+        <v>11.22</v>
       </c>
       <c r="H71">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="I71">
         <v>17271621</v>
       </c>
       <c r="J71">
-        <v>970.8</v>
+        <v>983.1</v>
       </c>
       <c r="K71">
-        <v>226.2</v>
+        <v>226.1</v>
       </c>
       <c r="L71" t="s">
         <v>120</v>
@@ -4562,31 +4562,31 @@
         <v>48</v>
       </c>
       <c r="C72">
-        <v>295.4</v>
+        <v>297.6</v>
       </c>
       <c r="D72">
-        <v>230.9</v>
+        <v>236.9</v>
       </c>
       <c r="E72">
-        <v>4553.7</v>
+        <v>4613.7</v>
       </c>
       <c r="F72">
-        <v>3607.4</v>
+        <v>3964.2</v>
       </c>
       <c r="G72">
-        <v>15.42</v>
+        <v>15.5</v>
       </c>
       <c r="H72">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="I72">
         <v>2629547</v>
       </c>
       <c r="J72">
-        <v>173.2</v>
+        <v>175.5</v>
       </c>
       <c r="K72">
-        <v>137.2</v>
+        <v>150.8</v>
       </c>
       <c r="L72" t="s">
         <v>121</v>
@@ -4606,31 +4606,31 @@
         <v>49</v>
       </c>
       <c r="C73">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D73">
         <v>245.1</v>
       </c>
       <c r="E73">
-        <v>6449.2</v>
+        <v>6373.5</v>
       </c>
       <c r="F73">
-        <v>3248.7</v>
+        <v>3249.8</v>
       </c>
       <c r="G73">
-        <v>13.87</v>
+        <v>13.92</v>
       </c>
       <c r="H73">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I73">
         <v>2692859</v>
       </c>
       <c r="J73">
-        <v>239.5</v>
+        <v>236.7</v>
       </c>
       <c r="K73">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="L73" t="s">
         <v>122</v>
@@ -4650,31 +4650,31 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>750.8</v>
+        <v>745.5999999999999</v>
       </c>
       <c r="D74">
-        <v>458.7</v>
+        <v>458.6</v>
       </c>
       <c r="E74">
-        <v>10605.4</v>
+        <v>10587.1</v>
       </c>
       <c r="F74">
-        <v>6961.6</v>
+        <v>6956.299999999999</v>
       </c>
       <c r="G74">
-        <v>14.13</v>
+        <v>14.2</v>
       </c>
       <c r="H74">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I74">
         <v>5322406</v>
       </c>
       <c r="J74">
-        <v>199.3</v>
+        <v>198.9</v>
       </c>
       <c r="K74">
-        <v>130.8</v>
+        <v>130.7</v>
       </c>
       <c r="L74" t="s">
         <v>123</v>
@@ -4958,13 +4958,13 @@
         <v>48</v>
       </c>
       <c r="C81">
-        <v>13141.4</v>
+        <v>13183.4</v>
       </c>
       <c r="D81">
         <v>2669.8</v>
       </c>
       <c r="E81">
-        <v>169694.4</v>
+        <v>170212.7</v>
       </c>
       <c r="F81">
         <v>33669.7</v>
@@ -4979,7 +4979,7 @@
         <v>9777814</v>
       </c>
       <c r="J81">
-        <v>1735.5</v>
+        <v>1740.8</v>
       </c>
       <c r="K81">
         <v>344.3</v>
@@ -5002,13 +5002,13 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>21655.4</v>
+        <v>21703.4</v>
       </c>
       <c r="D82">
         <v>3237</v>
       </c>
       <c r="E82">
-        <v>272538.5</v>
+        <v>273195.1</v>
       </c>
       <c r="F82">
         <v>43481.5</v>
@@ -5023,7 +5023,7 @@
         <v>9416141</v>
       </c>
       <c r="J82">
-        <v>2894.4</v>
+        <v>2901.3</v>
       </c>
       <c r="K82">
         <v>461.8</v>
@@ -5046,13 +5046,13 @@
         <v>50</v>
       </c>
       <c r="C83">
-        <v>34796.8</v>
+        <v>34886.8</v>
       </c>
       <c r="D83">
         <v>5677.3</v>
       </c>
       <c r="E83">
-        <v>462136.5</v>
+        <v>463350.2999999999</v>
       </c>
       <c r="F83">
         <v>75790.60000000001</v>
@@ -5067,7 +5067,7 @@
         <v>19193955</v>
       </c>
       <c r="J83">
-        <v>2407.7</v>
+        <v>2414</v>
       </c>
       <c r="K83">
         <v>394.9</v>
@@ -5222,13 +5222,13 @@
         <v>48</v>
       </c>
       <c r="C87">
-        <v>2455.6</v>
+        <v>2457.6</v>
       </c>
       <c r="D87">
         <v>582.6999999999999</v>
       </c>
       <c r="E87">
-        <v>31973.2</v>
+        <v>31991.4</v>
       </c>
       <c r="F87">
         <v>9693.9</v>
@@ -5243,7 +5243,7 @@
         <v>2772377</v>
       </c>
       <c r="J87">
-        <v>1153.3</v>
+        <v>1153.9</v>
       </c>
       <c r="K87">
         <v>349.7</v>
@@ -5266,19 +5266,19 @@
         <v>49</v>
       </c>
       <c r="C88">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D88">
         <v>496.4</v>
       </c>
       <c r="E88">
-        <v>38023.5</v>
+        <v>38055.2</v>
       </c>
       <c r="F88">
         <v>7216.4</v>
       </c>
       <c r="G88">
-        <v>11.12</v>
+        <v>11.13</v>
       </c>
       <c r="H88">
         <v>0.43</v>
@@ -5287,7 +5287,7 @@
         <v>2657884</v>
       </c>
       <c r="J88">
-        <v>1430.6</v>
+        <v>1431.8</v>
       </c>
       <c r="K88">
         <v>271.5</v>
@@ -5310,13 +5310,13 @@
         <v>50</v>
       </c>
       <c r="C89">
-        <v>5831.199999999999</v>
+        <v>5834.199999999999</v>
       </c>
       <c r="D89">
         <v>865.8000000000001</v>
       </c>
       <c r="E89">
-        <v>71022.3</v>
+        <v>71073.8</v>
       </c>
       <c r="F89">
         <v>11401.1</v>
@@ -5331,7 +5331,7 @@
         <v>5430261</v>
       </c>
       <c r="J89">
-        <v>1307.9</v>
+        <v>1308.8</v>
       </c>
       <c r="K89">
         <v>210</v>
@@ -5354,28 +5354,28 @@
         <v>48</v>
       </c>
       <c r="C90">
-        <v>1158.4</v>
+        <v>1168.4</v>
       </c>
       <c r="D90">
         <v>228.4</v>
       </c>
       <c r="E90">
-        <v>12535.2</v>
+        <v>12666.4</v>
       </c>
       <c r="F90">
         <v>3540.4</v>
       </c>
       <c r="G90">
-        <v>10.82</v>
+        <v>10.84</v>
       </c>
       <c r="H90">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I90">
         <v>1030802</v>
       </c>
       <c r="J90">
-        <v>1216.1</v>
+        <v>1228.8</v>
       </c>
       <c r="K90">
         <v>343.5</v>
@@ -5398,28 +5398,28 @@
         <v>49</v>
       </c>
       <c r="C91">
-        <v>1501.8</v>
+        <v>1514.8</v>
       </c>
       <c r="D91">
         <v>276.6</v>
       </c>
       <c r="E91">
-        <v>16563.1</v>
+        <v>16816.5</v>
       </c>
       <c r="F91">
         <v>4708.200000000001</v>
       </c>
       <c r="G91">
-        <v>11.03</v>
+        <v>11.1</v>
       </c>
       <c r="H91">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I91">
         <v>1046472</v>
       </c>
       <c r="J91">
-        <v>1582.8</v>
+        <v>1607</v>
       </c>
       <c r="K91">
         <v>449.9</v>
@@ -5442,28 +5442,28 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>2652</v>
+        <v>2671</v>
       </c>
       <c r="D92">
         <v>394.2</v>
       </c>
       <c r="E92">
-        <v>29581.8</v>
+        <v>29858.7</v>
       </c>
       <c r="F92">
         <v>6247.2</v>
       </c>
       <c r="G92">
-        <v>11.15</v>
+        <v>11.18</v>
       </c>
       <c r="H92">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I92">
         <v>2077274</v>
       </c>
       <c r="J92">
-        <v>1424.1</v>
+        <v>1437.4</v>
       </c>
       <c r="K92">
         <v>300.7</v>
@@ -5486,31 +5486,31 @@
         <v>48</v>
       </c>
       <c r="C93">
-        <v>22726</v>
+        <v>21162.2</v>
       </c>
       <c r="D93">
-        <v>3310</v>
+        <v>3315.8</v>
       </c>
       <c r="E93">
-        <v>302123.8</v>
+        <v>277662.6</v>
       </c>
       <c r="F93">
-        <v>47606.10000000001</v>
+        <v>48046.60000000001</v>
       </c>
       <c r="G93">
-        <v>13.29</v>
+        <v>13.12</v>
       </c>
       <c r="H93">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I93">
         <v>23724352</v>
       </c>
       <c r="J93">
-        <v>1273.5</v>
+        <v>1170.4</v>
       </c>
       <c r="K93">
-        <v>200.7</v>
+        <v>202.5</v>
       </c>
       <c r="L93" t="s">
         <v>142</v>
@@ -5530,28 +5530,28 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>30895.8</v>
+        <v>29097.8</v>
       </c>
       <c r="D94">
         <v>3983.6</v>
       </c>
       <c r="E94">
-        <v>383628.7</v>
+        <v>366059.2</v>
       </c>
       <c r="F94">
         <v>54697.7</v>
       </c>
       <c r="G94">
-        <v>12.42</v>
+        <v>12.58</v>
       </c>
       <c r="H94">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I94">
         <v>23021513</v>
       </c>
       <c r="J94">
-        <v>1666.4</v>
+        <v>1590.1</v>
       </c>
       <c r="K94">
         <v>237.6</v>
@@ -5574,31 +5574,31 @@
         <v>50</v>
       </c>
       <c r="C95">
-        <v>53586.8</v>
+        <v>50234</v>
       </c>
       <c r="D95">
-        <v>6777.1</v>
+        <v>6800.1</v>
       </c>
       <c r="E95">
-        <v>701240.7</v>
+        <v>659751.9999999999</v>
       </c>
       <c r="F95">
-        <v>98219.7</v>
+        <v>99568.60000000001</v>
       </c>
       <c r="G95">
-        <v>13.09</v>
+        <v>13.13</v>
       </c>
       <c r="H95">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I95">
         <v>46745865</v>
       </c>
       <c r="J95">
-        <v>1500.1</v>
+        <v>1411.4</v>
       </c>
       <c r="K95">
-        <v>210.1</v>
+        <v>213</v>
       </c>
       <c r="L95" t="s">
         <v>144</v>

--- a/data_output/PYLL/PYLL_EU/EU_PYLL_(0-4)-(85-89)_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_(0-4)-(85-89)_['Female', 'Male', 'Total'].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="317">
   <si>
     <t>Location</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Excess_mortality_Mean</t>
-  </si>
-  <si>
-    <t>Excess_mortality_fluc</t>
+    <t>Excess_mortality</t>
+  </si>
+  <si>
+    <t>Conf_interval</t>
   </si>
   <si>
     <t>PYLL_mean</t>
@@ -58,12 +58,6 @@
     <t>PYLL_STD ±</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -169,904 +157,814 @@
     <t>Total</t>
   </si>
   <si>
-    <t>16979.5 (±4418.3)</t>
-  </si>
-  <si>
-    <t>42985.4 (±5586.8)</t>
-  </si>
-  <si>
-    <t>59923.3 (±8541.9)</t>
-  </si>
-  <si>
-    <t>38526.5 (±6312.1)</t>
-  </si>
-  <si>
-    <t>143716.6 (±8791.2)</t>
-  </si>
-  <si>
-    <t>189394.0 (±14061.4)</t>
-  </si>
-  <si>
-    <t>32155.1 (±10792.4)</t>
-  </si>
-  <si>
-    <t>50725.7 (±14202.5)</t>
-  </si>
-  <si>
-    <t>81709.5 (±22145.0)</t>
-  </si>
-  <si>
-    <t>56598.8 (±14943.3)</t>
-  </si>
-  <si>
-    <t>71872.7 (±18243.5)</t>
-  </si>
-  <si>
-    <t>129756.6 (±31186.9)</t>
-  </si>
-  <si>
-    <t>87261.4 (±14421.8)</t>
-  </si>
-  <si>
-    <t>120675.0 (±16809.5)</t>
-  </si>
-  <si>
-    <t>215233.4 (±30250.1)</t>
-  </si>
-  <si>
-    <t>19679.5 (±8557.6)</t>
-  </si>
-  <si>
-    <t>25967.8 (±7070.0)</t>
-  </si>
-  <si>
-    <t>46865.4 (±13891.3)</t>
-  </si>
-  <si>
-    <t>2727.1 (±1404.4)</t>
-  </si>
-  <si>
-    <t>4621.0 (±2479.2)</t>
-  </si>
-  <si>
-    <t>6990.7 (±2983.4)</t>
-  </si>
-  <si>
-    <t>73373.7 (±18448.1)</t>
-  </si>
-  <si>
-    <t>103511.1 (±20823.3)</t>
-  </si>
-  <si>
-    <t>182739.9 (±37384.4)</t>
-  </si>
-  <si>
-    <t>8611.5 (±3098.2)</t>
-  </si>
-  <si>
-    <t>13113.7 (±4846.5)</t>
-  </si>
-  <si>
-    <t>21603.7 (±9082.6)</t>
-  </si>
-  <si>
-    <t>5501.3 (±2909.1)</t>
-  </si>
-  <si>
-    <t>5213.7 (±2819.9)</t>
-  </si>
-  <si>
-    <t>10417.5 (±5399.3)</t>
-  </si>
-  <si>
-    <t>11150.2 (±5214.5)</t>
-  </si>
-  <si>
-    <t>16811.8 (±6268.1)</t>
-  </si>
-  <si>
-    <t>27950.3 (±10611.5)</t>
-  </si>
-  <si>
-    <t>183543.9 (±49339.3)</t>
-  </si>
-  <si>
-    <t>274447.4 (±66866.6)</t>
-  </si>
-  <si>
-    <t>471649.1 (±116464.7)</t>
-  </si>
-  <si>
-    <t>1248.3 (±1666.3)</t>
-  </si>
-  <si>
-    <t>2171.7 (±1845.6)</t>
-  </si>
-  <si>
-    <t>2839.0 (±3210.1)</t>
-  </si>
-  <si>
-    <t>771695.5 (±2283803.5)</t>
-  </si>
-  <si>
-    <t>26380.5 (±11904.3)</t>
-  </si>
-  <si>
-    <t>29202.9 (±8105.9)</t>
-  </si>
-  <si>
-    <t>55032.3 (±19577.2)</t>
-  </si>
-  <si>
-    <t>72819.2 (±13413.3)</t>
-  </si>
-  <si>
-    <t>73391.4 (±16205.8)</t>
-  </si>
-  <si>
-    <t>150552.6 (±27181.7)</t>
-  </si>
-  <si>
-    <t>1063.8 (±652.8)</t>
-  </si>
-  <si>
-    <t>1865.9 (±1004.9)</t>
-  </si>
-  <si>
-    <t>2477.2 (±1576.4)</t>
-  </si>
-  <si>
-    <t>313670.3 (±70253.6)</t>
-  </si>
-  <si>
-    <t>527596.6 (±66277.4)</t>
-  </si>
-  <si>
-    <t>869892.2 (±132785.4)</t>
-  </si>
-  <si>
-    <t>3881.5 (±1922.2)</t>
-  </si>
-  <si>
-    <t>4645.9 (±2719.3)</t>
-  </si>
-  <si>
-    <t>8439.4 (±5006.9)</t>
-  </si>
-  <si>
-    <t>19215.0 (±8338.2)</t>
-  </si>
-  <si>
-    <t>25868.8 (±12184.4)</t>
-  </si>
-  <si>
-    <t>47516.0 (±21279.9)</t>
-  </si>
-  <si>
-    <t>2199.0 (±1313.3)</t>
-  </si>
-  <si>
-    <t>3516.9 (±2166.7)</t>
-  </si>
-  <si>
-    <t>5363.6 (±3221.0)</t>
-  </si>
-  <si>
-    <t>2095.8 (±1419.4)</t>
-  </si>
-  <si>
-    <t>3949.7 (±1788.5)</t>
-  </si>
-  <si>
-    <t>6007.7 (±2785.3)</t>
-  </si>
-  <si>
-    <t>3640.4 (±1393.6)</t>
-  </si>
-  <si>
-    <t>5686.6 (±2367.4)</t>
-  </si>
-  <si>
-    <t>9356.2 (±2887.2)</t>
-  </si>
-  <si>
-    <t>65278.8 (±18124.5)</t>
-  </si>
-  <si>
-    <t>104431.1 (±20808.4)</t>
-  </si>
-  <si>
-    <t>169793.3 (±39057.2)</t>
-  </si>
-  <si>
-    <t>4613.7 (±3964.2)</t>
-  </si>
-  <si>
-    <t>6373.5 (±3249.8)</t>
-  </si>
-  <si>
-    <t>10587.1 (±6956.3)</t>
-  </si>
-  <si>
-    <t>327271.7 (±69810.8)</t>
-  </si>
-  <si>
-    <t>500768.4 (±83613.6)</t>
-  </si>
-  <si>
-    <t>866863.8 (±153749.0)</t>
-  </si>
-  <si>
-    <t>47928.9 (±12768.7)</t>
-  </si>
-  <si>
-    <t>58301.8 (±15773.8)</t>
-  </si>
-  <si>
-    <t>108795.7 (±23423.4)</t>
-  </si>
-  <si>
-    <t>170212.7 (±33669.7)</t>
-  </si>
-  <si>
-    <t>273195.1 (±43481.5)</t>
-  </si>
-  <si>
-    <t>463350.3 (±75790.6)</t>
-  </si>
-  <si>
-    <t>35636.3 (±12575.0)</t>
-  </si>
-  <si>
-    <t>79073.6 (±23684.9)</t>
-  </si>
-  <si>
-    <t>114456.5 (±34367.8)</t>
-  </si>
-  <si>
-    <t>31991.4 (±9693.9)</t>
-  </si>
-  <si>
-    <t>38055.2 (±7216.4)</t>
-  </si>
-  <si>
-    <t>71073.8 (±11401.1)</t>
-  </si>
-  <si>
-    <t>12666.4 (±3540.4)</t>
-  </si>
-  <si>
-    <t>16816.5 (±4708.2)</t>
-  </si>
-  <si>
-    <t>29858.7 (±6247.2)</t>
-  </si>
-  <si>
-    <t>277662.6 (±48046.6)</t>
-  </si>
-  <si>
-    <t>366059.2 (±54697.7)</t>
-  </si>
-  <si>
-    <t>659752.0 (±99568.6)</t>
-  </si>
-  <si>
-    <t>25205.2 (±5836.4)</t>
-  </si>
-  <si>
-    <t>40280.1 (±9844.4)</t>
-  </si>
-  <si>
-    <t>62381.3 (±12559.5)</t>
-  </si>
-  <si>
-    <t>24851.0 (±4753.8)</t>
-  </si>
-  <si>
-    <t>41574.8 (±10975.6)</t>
-  </si>
-  <si>
-    <t>64630.2 (±14735.7)</t>
-  </si>
-  <si>
-    <t>9.33 (±0.88)</t>
-  </si>
-  <si>
-    <t>11.39 (±0.42)</t>
-  </si>
-  <si>
-    <t>10.71 (±0.51)</t>
-  </si>
-  <si>
-    <t>14.0 (±0.24)</t>
-  </si>
-  <si>
-    <t>26.68 (±0.51)</t>
-  </si>
-  <si>
-    <t>23.35 (±0.44)</t>
-  </si>
-  <si>
-    <t>12.81 (±0.07)</t>
-  </si>
-  <si>
-    <t>11.88 (±0.68)</t>
-  </si>
-  <si>
-    <t>12.18 (±0.35)</t>
-  </si>
-  <si>
-    <t>10.61 (±0.61)</t>
-  </si>
-  <si>
-    <t>10.79 (±0.6)</t>
-  </si>
-  <si>
-    <t>10.85 (±0.62)</t>
-  </si>
-  <si>
-    <t>13.68 (±0.24)</t>
-  </si>
-  <si>
-    <t>12.55 (±0.04)</t>
-  </si>
-  <si>
-    <t>13.47 (±0.11)</t>
-  </si>
-  <si>
-    <t>10.92 (±0.52)</t>
-  </si>
-  <si>
-    <t>10.56 (±0.3)</t>
-  </si>
-  <si>
-    <t>11.04 (±0.23)</t>
-  </si>
-  <si>
-    <t>13.8 (±1.03)</t>
-  </si>
-  <si>
-    <t>15.59 (±0.49)</t>
-  </si>
-  <si>
-    <t>14.48 (±0.41)</t>
-  </si>
-  <si>
-    <t>11.89 (±0.29)</t>
-  </si>
-  <si>
-    <t>10.82 (±0.49)</t>
-  </si>
-  <si>
-    <t>11.62 (±0.36)</t>
-  </si>
-  <si>
-    <t>12.44 (±0.66)</t>
-  </si>
-  <si>
-    <t>9.55 (±0.27)</t>
-  </si>
-  <si>
-    <t>10.54 (±0.68)</t>
-  </si>
-  <si>
-    <t>18.75 (±1.45)</t>
-  </si>
-  <si>
-    <t>13.87 (±1.17)</t>
-  </si>
-  <si>
-    <t>16.59 (±0.95)</t>
-  </si>
-  <si>
-    <t>16.24 (±0.57)</t>
-  </si>
-  <si>
-    <t>14.25 (±0.61)</t>
-  </si>
-  <si>
-    <t>15.48 (±0.76)</t>
-  </si>
-  <si>
-    <t>13.77 (±0.1)</t>
-  </si>
-  <si>
-    <t>11.64 (±0.46)</t>
-  </si>
-  <si>
-    <t>12.79 (±0.32)</t>
-  </si>
-  <si>
-    <t>9.23 (±0.79)</t>
-  </si>
-  <si>
-    <t>11.42 (±0.35)</t>
-  </si>
-  <si>
-    <t>11.32 (±0.33)</t>
-  </si>
-  <si>
-    <t>12.46 (±1.23)</t>
-  </si>
-  <si>
-    <t>13.63 (±0.14)</t>
-  </si>
-  <si>
-    <t>12.01 (±0.38)</t>
-  </si>
-  <si>
-    <t>12.68 (±0.1)</t>
-  </si>
-  <si>
-    <t>12.0 (±0.37)</t>
-  </si>
-  <si>
-    <t>11.28 (±0.53)</t>
-  </si>
-  <si>
-    <t>11.97 (±0.44)</t>
-  </si>
-  <si>
-    <t>39.69 (±0.14)</t>
-  </si>
-  <si>
-    <t>23.98 (±1.84)</t>
-  </si>
-  <si>
-    <t>28.94 (±1.29)</t>
-  </si>
-  <si>
-    <t>11.19 (±0.21)</t>
-  </si>
-  <si>
-    <t>11.47 (±0.25)</t>
-  </si>
-  <si>
-    <t>11.75 (±0.21)</t>
-  </si>
-  <si>
-    <t>9.36 (±0.25)</t>
-  </si>
-  <si>
-    <t>10.11 (±0.88)</t>
-  </si>
-  <si>
-    <t>10.06 (±0.48)</t>
-  </si>
-  <si>
-    <t>12.82 (±0.15)</t>
-  </si>
-  <si>
-    <t>12.5 (±0.96)</t>
-  </si>
-  <si>
-    <t>13.34 (±0.68)</t>
-  </si>
-  <si>
-    <t>21.95 (±0.18)</t>
-  </si>
-  <si>
-    <t>15.41 (±1.28)</t>
-  </si>
-  <si>
-    <t>17.08 (±1.62)</t>
-  </si>
-  <si>
-    <t>13.03 (±2.15)</t>
-  </si>
-  <si>
-    <t>13.92 (±1.11)</t>
-  </si>
-  <si>
-    <t>13.7 (±1.41)</t>
-  </si>
-  <si>
-    <t>12.62 (±1.01)</t>
-  </si>
-  <si>
-    <t>10.91 (±0.94)</t>
-  </si>
-  <si>
-    <t>11.86 (±1.05)</t>
-  </si>
-  <si>
-    <t>11.43 (±0.89)</t>
-  </si>
-  <si>
-    <t>10.97 (±0.48)</t>
-  </si>
-  <si>
-    <t>11.22 (±0.71)</t>
-  </si>
-  <si>
-    <t>15.5 (±0.55)</t>
-  </si>
-  <si>
-    <t>13.92 (±0.23)</t>
-  </si>
-  <si>
-    <t>14.2 (±0.37)</t>
-  </si>
-  <si>
-    <t>13.78 (±0.2)</t>
-  </si>
-  <si>
-    <t>12.95 (±0.2)</t>
-  </si>
-  <si>
-    <t>13.9 (±0.17)</t>
-  </si>
-  <si>
-    <t>11.19 (±0.76)</t>
-  </si>
-  <si>
-    <t>11.86 (±0.49)</t>
-  </si>
-  <si>
-    <t>11.84 (±0.35)</t>
-  </si>
-  <si>
-    <t>12.91 (±0.05)</t>
-  </si>
-  <si>
-    <t>12.59 (±0.11)</t>
-  </si>
-  <si>
-    <t>13.28 (±0.01)</t>
-  </si>
-  <si>
-    <t>12.47 (±0.04)</t>
-  </si>
-  <si>
-    <t>12.9 (±0.21)</t>
-  </si>
-  <si>
-    <t>13.07 (±0.35)</t>
-  </si>
-  <si>
-    <t>13.02 (±0.69)</t>
-  </si>
-  <si>
-    <t>11.13 (±0.43)</t>
-  </si>
-  <si>
-    <t>12.18 (±0.13)</t>
-  </si>
-  <si>
-    <t>10.84 (±0.76)</t>
-  </si>
-  <si>
-    <t>11.1 (±0.92)</t>
-  </si>
-  <si>
-    <t>11.18 (±0.6)</t>
-  </si>
-  <si>
-    <t>13.12 (±0.19)</t>
-  </si>
-  <si>
-    <t>12.58 (±0.14)</t>
-  </si>
-  <si>
-    <t>13.13 (±0.18)</t>
-  </si>
-  <si>
-    <t>11.02 (±0.02)</t>
-  </si>
-  <si>
-    <t>10.34 (±0.79)</t>
-  </si>
-  <si>
-    <t>10.28 (±0.37)</t>
-  </si>
-  <si>
-    <t>10.48 (±0.58)</t>
-  </si>
-  <si>
-    <t>10.5 (±1.13)</t>
-  </si>
-  <si>
-    <t>10.38 (±0.94)</t>
-  </si>
-  <si>
-    <t>1202.9 (±313.0)</t>
-  </si>
-  <si>
-    <t>3052.7 (±396.8)</t>
-  </si>
-  <si>
-    <t>2125.2 (±302.9)</t>
-  </si>
-  <si>
-    <t>2494.8 (±408.7)</t>
-  </si>
-  <si>
-    <t>10371.4 (±634.4)</t>
-  </si>
-  <si>
-    <t>6464.1 (±479.9)</t>
-  </si>
-  <si>
-    <t>720.5 (±241.8)</t>
-  </si>
-  <si>
-    <t>1164.5 (±326.0)</t>
-  </si>
-  <si>
-    <t>926.5 (±251.1)</t>
-  </si>
-  <si>
-    <t>983.3 (±259.6)</t>
-  </si>
-  <si>
-    <t>1272.9 (±323.1)</t>
-  </si>
-  <si>
-    <t>1138.0 (±273.5)</t>
-  </si>
-  <si>
-    <t>2455.6 (±405.8)</t>
-  </si>
-  <si>
-    <t>3594.5 (±500.7)</t>
-  </si>
-  <si>
-    <t>3114.5 (±437.7)</t>
-  </si>
-  <si>
-    <t>952.0 (±414.0)</t>
-  </si>
-  <si>
-    <t>1321.8 (±359.9)</t>
-  </si>
-  <si>
-    <t>1162.4 (±344.5)</t>
-  </si>
-  <si>
-    <t>612.9 (±315.6)</t>
-  </si>
-  <si>
-    <t>1077.6 (±578.1)</t>
-  </si>
-  <si>
-    <t>800.1 (±341.4)</t>
-  </si>
-  <si>
-    <t>1365.2 (±343.2)</t>
-  </si>
-  <si>
-    <t>1969.8 (±396.3)</t>
-  </si>
-  <si>
-    <t>1719.2 (±351.7)</t>
-  </si>
-  <si>
-    <t>292.9 (±105.4)</t>
-  </si>
-  <si>
-    <t>450.2 (±166.4)</t>
-  </si>
-  <si>
-    <t>369.1 (±155.2)</t>
-  </si>
-  <si>
-    <t>797.1 (±421.5)</t>
-  </si>
-  <si>
-    <t>831.4 (±449.7)</t>
-  </si>
-  <si>
-    <t>790.9 (±409.9)</t>
-  </si>
-  <si>
-    <t>404.4 (±189.1)</t>
-  </si>
-  <si>
-    <t>619.6 (±231.0)</t>
-  </si>
-  <si>
-    <t>510.9 (±194.0)</t>
-  </si>
-  <si>
-    <t>538.2 (±144.7)</t>
-  </si>
-  <si>
-    <t>850.3 (±207.2)</t>
-  </si>
-  <si>
-    <t>710.5 (±175.5)</t>
-  </si>
-  <si>
-    <t>65.0 (±86.8)</t>
-  </si>
-  <si>
-    <t>121.5 (±103.2)</t>
-  </si>
-  <si>
-    <t>76.6 (±86.6)</t>
-  </si>
-  <si>
-    <t>938.1 (±2776.2)</t>
-  </si>
-  <si>
-    <t>486.6 (±219.6)</t>
-  </si>
-  <si>
-    <t>565.9 (±157.1)</t>
-  </si>
-  <si>
-    <t>520.1 (±185.0)</t>
-  </si>
-  <si>
-    <t>1445.0 (±266.2)</t>
-  </si>
-  <si>
-    <t>1573.4 (±347.4)</t>
-  </si>
-  <si>
-    <t>1551.4 (±280.1)</t>
-  </si>
-  <si>
-    <t>605.6 (±371.6)</t>
-  </si>
-  <si>
-    <t>1002.2 (±539.8)</t>
-  </si>
-  <si>
-    <t>684.6 (±435.7)</t>
-  </si>
-  <si>
-    <t>1076.9 (±241.2)</t>
-  </si>
-  <si>
-    <t>1862.6 (±234.0)</t>
-  </si>
-  <si>
-    <t>1478.2 (±225.6)</t>
-  </si>
-  <si>
-    <t>382.5 (±189.4)</t>
-  </si>
-  <si>
-    <t>528.9 (±309.6)</t>
-  </si>
-  <si>
-    <t>445.8 (±264.5)</t>
-  </si>
-  <si>
-    <t>1305.7 (±566.6)</t>
-  </si>
-  <si>
-    <t>1990.6 (±937.6)</t>
-  </si>
-  <si>
-    <t>1714.7 (±767.9)</t>
-  </si>
-  <si>
-    <t>713.7 (±426.3)</t>
-  </si>
-  <si>
-    <t>1120.6 (±690.4)</t>
-  </si>
-  <si>
-    <t>862.4 (±517.9)</t>
-  </si>
-  <si>
-    <t>850.1 (±575.7)</t>
-  </si>
-  <si>
-    <t>1492.2 (±675.7)</t>
-  </si>
-  <si>
-    <t>1175.2 (±544.8)</t>
-  </si>
-  <si>
-    <t>1163.5 (±445.4)</t>
-  </si>
-  <si>
-    <t>1855.8 (±772.6)</t>
-  </si>
-  <si>
-    <t>1510.7 (±466.2)</t>
-  </si>
-  <si>
-    <t>753.4 (±209.2)</t>
-  </si>
-  <si>
-    <t>1213.3 (±241.7)</t>
-  </si>
-  <si>
-    <t>983.1 (±226.1)</t>
-  </si>
-  <si>
-    <t>175.5 (±150.8)</t>
-  </si>
-  <si>
-    <t>236.7 (±120.7)</t>
-  </si>
-  <si>
-    <t>198.9 (±130.7)</t>
-  </si>
-  <si>
-    <t>1688.7 (±360.2)</t>
-  </si>
-  <si>
-    <t>2735.6 (±456.8)</t>
-  </si>
-  <si>
-    <t>2300.2 (±408.0)</t>
-  </si>
-  <si>
-    <t>894.3 (±238.3)</t>
-  </si>
-  <si>
-    <t>1207.3 (±326.6)</t>
-  </si>
-  <si>
-    <t>1067.8 (±229.9)</t>
-  </si>
-  <si>
-    <t>1740.8 (±344.3)</t>
-  </si>
-  <si>
-    <t>2901.3 (±461.8)</t>
-  </si>
-  <si>
-    <t>2414.0 (±394.9)</t>
-  </si>
-  <si>
-    <t>1010.9 (±356.7)</t>
-  </si>
-  <si>
-    <t>2354.1 (±705.1)</t>
-  </si>
-  <si>
-    <t>1662.6 (±499.2)</t>
-  </si>
-  <si>
-    <t>1153.9 (±349.7)</t>
-  </si>
-  <si>
-    <t>1431.8 (±271.5)</t>
-  </si>
-  <si>
-    <t>1308.8 (±210.0)</t>
-  </si>
-  <si>
-    <t>1228.8 (±343.5)</t>
-  </si>
-  <si>
-    <t>1607.0 (±449.9)</t>
-  </si>
-  <si>
-    <t>1437.4 (±300.7)</t>
-  </si>
-  <si>
-    <t>1170.4 (±202.5)</t>
-  </si>
-  <si>
-    <t>1590.1 (±237.6)</t>
-  </si>
-  <si>
-    <t>1411.4 (±213.0)</t>
-  </si>
-  <si>
-    <t>497.9 (±115.3)</t>
-  </si>
-  <si>
-    <t>780.0 (±190.6)</t>
-  </si>
-  <si>
-    <t>610.0 (±122.8)</t>
-  </si>
-  <si>
-    <t>593.6 (±113.5)</t>
-  </si>
-  <si>
-    <t>992.2 (±261.9)</t>
-  </si>
-  <si>
-    <t>771.5 (±175.9)</t>
+    <t>35920.1 (±27676.3)</t>
+  </si>
+  <si>
+    <t>52206.1 (±27890.1)</t>
+  </si>
+  <si>
+    <t>85923.4 (±41109.8)</t>
+  </si>
+  <si>
+    <t>66931.4 (±28538.7)</t>
+  </si>
+  <si>
+    <t>90701.3 (±36071.1)</t>
+  </si>
+  <si>
+    <t>160413.1 (±51154.6)</t>
+  </si>
+  <si>
+    <t>103109.7 (±30988.2)</t>
+  </si>
+  <si>
+    <t>134696.2 (±34006.2)</t>
+  </si>
+  <si>
+    <t>245130.4 (±49323.9)</t>
+  </si>
+  <si>
+    <t>32206.0 (±22023.0)</t>
+  </si>
+  <si>
+    <t>37002.8 (±19831.7)</t>
+  </si>
+  <si>
+    <t>69400.2 (±33429.4)</t>
+  </si>
+  <si>
+    <t>2291.6 (±4733.7)</t>
+  </si>
+  <si>
+    <t>2299.8 (±5435.2)</t>
+  </si>
+  <si>
+    <t>3748.4 (±7042.1)</t>
+  </si>
+  <si>
+    <t>74670.8 (±35341.6)</t>
+  </si>
+  <si>
+    <t>100584.0 (±38405.9)</t>
+  </si>
+  <si>
+    <t>178927.3 (±52337.2)</t>
+  </si>
+  <si>
+    <t>8156.1 (±18088.5)</t>
+  </si>
+  <si>
+    <t>8472.6 (±18046.3)</t>
+  </si>
+  <si>
+    <t>14408.9 (±28095.2)</t>
+  </si>
+  <si>
+    <t>5698.3 (±10093.9)</t>
+  </si>
+  <si>
+    <t>7124.2 (±11926.2)</t>
+  </si>
+  <si>
+    <t>11531.4 (±17833.0)</t>
+  </si>
+  <si>
+    <t>7124.6 (±15809.2)</t>
+  </si>
+  <si>
+    <t>15277.3 (±19903.5)</t>
+  </si>
+  <si>
+    <t>19409.1 (±28061.8)</t>
+  </si>
+  <si>
+    <t>174457.7 (±75150.5)</t>
+  </si>
+  <si>
+    <t>312290.2 (±90863.6)</t>
+  </si>
+  <si>
+    <t>498856.7 (±143206.6)</t>
+  </si>
+  <si>
+    <t>34754.4 (±29770.7)</t>
+  </si>
+  <si>
+    <t>39134.7 (±30972.1)</t>
+  </si>
+  <si>
+    <t>72191.8 (±46062.0)</t>
+  </si>
+  <si>
+    <t>84024.6 (±38593.6)</t>
+  </si>
+  <si>
+    <t>83028.1 (±41138.6)</t>
+  </si>
+  <si>
+    <t>169746.8 (±66612.1)</t>
+  </si>
+  <si>
+    <t>1325.3 (±2637.5)</t>
+  </si>
+  <si>
+    <t>1662.2 (±3715.7)</t>
+  </si>
+  <si>
+    <t>2389.4 (±4878.6)</t>
+  </si>
+  <si>
+    <t>428002.1 (±85192.1)</t>
+  </si>
+  <si>
+    <t>643680.4 (±92249.6)</t>
+  </si>
+  <si>
+    <t>1097545.2 (±151345.3)</t>
+  </si>
+  <si>
+    <t>9791.6 (±11831.2)</t>
+  </si>
+  <si>
+    <t>9051.1 (±14604.5)</t>
+  </si>
+  <si>
+    <t>18412.4 (±21145.9)</t>
+  </si>
+  <si>
+    <t>36734.2 (±19955.8)</t>
+  </si>
+  <si>
+    <t>57299.2 (±24549.3)</t>
+  </si>
+  <si>
+    <t>98767.7 (±35342.7)</t>
+  </si>
+  <si>
+    <t>1887.0 (±4347.0)</t>
+  </si>
+  <si>
+    <t>3516.4 (±5052.8)</t>
+  </si>
+  <si>
+    <t>4878.2 (±7678.2)</t>
+  </si>
+  <si>
+    <t>2330.6 (±4347.2)</t>
+  </si>
+  <si>
+    <t>2708.5 (±4556.3)</t>
+  </si>
+  <si>
+    <t>4818.0 (±7186.4)</t>
+  </si>
+  <si>
+    <t>5990.7 (±7413.1)</t>
+  </si>
+  <si>
+    <t>6440.6 (±4986.4)</t>
+  </si>
+  <si>
+    <t>11960.7 (±9263.6)</t>
+  </si>
+  <si>
+    <t>57077.1 (±32345.4)</t>
+  </si>
+  <si>
+    <t>99768.0 (±37504.9)</t>
+  </si>
+  <si>
+    <t>159269.7 (±57279.2)</t>
+  </si>
+  <si>
+    <t>2661.6 (±10018.2)</t>
+  </si>
+  <si>
+    <t>4991.6 (±15143.2)</t>
+  </si>
+  <si>
+    <t>6039.2 (±19128.3)</t>
+  </si>
+  <si>
+    <t>300804.1 (±76674.6)</t>
+  </si>
+  <si>
+    <t>475556.1 (±86730.1)</t>
+  </si>
+  <si>
+    <t>814378.8 (±135318.7)</t>
+  </si>
+  <si>
+    <t>55190.8 (±30374.6)</t>
+  </si>
+  <si>
+    <t>61091.9 (±38207.4)</t>
+  </si>
+  <si>
+    <t>117064.3 (±56955.9)</t>
+  </si>
+  <si>
+    <t>209967.7 (±61010.4)</t>
+  </si>
+  <si>
+    <t>271265.2 (±70719.5)</t>
+  </si>
+  <si>
+    <t>493743.2 (±106724.6)</t>
+  </si>
+  <si>
+    <t>55173.2 (±29780.3)</t>
+  </si>
+  <si>
+    <t>101305.5 (±36206.9)</t>
+  </si>
+  <si>
+    <t>158468.3 (±55142.5)</t>
+  </si>
+  <si>
+    <t>37803.7 (±23459.0)</t>
+  </si>
+  <si>
+    <t>39284.1 (±29043.9)</t>
+  </si>
+  <si>
+    <t>78357.0 (±40617.1)</t>
+  </si>
+  <si>
+    <t>14898.9 (±9501.7)</t>
+  </si>
+  <si>
+    <t>18533.4 (±14481.1)</t>
+  </si>
+  <si>
+    <t>33683.2 (±17846.1)</t>
+  </si>
+  <si>
+    <t>313215.4 (±69500.7)</t>
+  </si>
+  <si>
+    <t>404776.2 (±80904.4)</t>
+  </si>
+  <si>
+    <t>735502.8 (±118744.9)</t>
+  </si>
+  <si>
+    <t>28316.5 (±20385.1)</t>
+  </si>
+  <si>
+    <t>59247.7 (±29181.4)</t>
+  </si>
+  <si>
+    <t>86381.5 (±40948.0)</t>
+  </si>
+  <si>
+    <t>22962.6 (±22591.4)</t>
+  </si>
+  <si>
+    <t>46293.3 (±30709.8)</t>
+  </si>
+  <si>
+    <t>69014.4 (±42723.0)</t>
+  </si>
+  <si>
+    <t>11.96 (±2.43)</t>
+  </si>
+  <si>
+    <t>13.08 (±1.37)</t>
+  </si>
+  <si>
+    <t>12.46 (±1.32)</t>
+  </si>
+  <si>
+    <t>10.81 (±1.42)</t>
+  </si>
+  <si>
+    <t>12.54 (±1.34)</t>
+  </si>
+  <si>
+    <t>11.96 (±1.09)</t>
+  </si>
+  <si>
+    <t>13.63 (±0.56)</t>
+  </si>
+  <si>
+    <t>12.82 (±0.56)</t>
+  </si>
+  <si>
+    <t>13.57 (±0.33)</t>
+  </si>
+  <si>
+    <t>12.43 (±1.67)</t>
+  </si>
+  <si>
+    <t>12.03 (±1.15)</t>
+  </si>
+  <si>
+    <t>12.34 (±1.29)</t>
+  </si>
+  <si>
+    <t>22.16 (±0.62)</t>
+  </si>
+  <si>
+    <t>23.47 (±0.26)</t>
+  </si>
+  <si>
+    <t>20.99 (±1.18)</t>
+  </si>
+  <si>
+    <t>11.91 (±1.48)</t>
+  </si>
+  <si>
+    <t>11.82 (±1.19)</t>
+  </si>
+  <si>
+    <t>12.14 (±0.75)</t>
+  </si>
+  <si>
+    <t>19.38 (±0.59)</t>
+  </si>
+  <si>
+    <t>13.17 (±3.71)</t>
+  </si>
+  <si>
+    <t>14.8 (±3.08)</t>
+  </si>
+  <si>
+    <t>23.08 (±2.19)</t>
+  </si>
+  <si>
+    <t>21.1 (±0.57)</t>
+  </si>
+  <si>
+    <t>21.16 (±2.1)</t>
+  </si>
+  <si>
+    <t>14.5 (±1.75)</t>
+  </si>
+  <si>
+    <t>20.5 (±1.18)</t>
+  </si>
+  <si>
+    <t>17.36 (±0.85)</t>
+  </si>
+  <si>
+    <t>12.02 (±1.29)</t>
+  </si>
+  <si>
+    <t>13.12 (±0.81)</t>
+  </si>
+  <si>
+    <t>13.05 (±0.84)</t>
+  </si>
+  <si>
+    <t>13.2 (±1.34)</t>
+  </si>
+  <si>
+    <t>14.18 (±0.95)</t>
+  </si>
+  <si>
+    <t>13.49 (±0.73)</t>
+  </si>
+  <si>
+    <t>12.99 (±1.14)</t>
+  </si>
+  <si>
+    <t>13.02 (±1.29)</t>
+  </si>
+  <si>
+    <t>13.24 (±1.08)</t>
+  </si>
+  <si>
+    <t>34.88 (±5.68)</t>
+  </si>
+  <si>
+    <t>29.06 (±0.62)</t>
+  </si>
+  <si>
+    <t>37.75 (±3.64)</t>
+  </si>
+  <si>
+    <t>11.58 (±0.43)</t>
+  </si>
+  <si>
+    <t>12.51 (±0.34)</t>
+  </si>
+  <si>
+    <t>12.42 (±0.26)</t>
+  </si>
+  <si>
+    <t>11.92 (±2.22)</t>
+  </si>
+  <si>
+    <t>15.74 (±1.82)</t>
+  </si>
+  <si>
+    <t>13.82 (±2.15)</t>
+  </si>
+  <si>
+    <t>13.36 (±1.56)</t>
+  </si>
+  <si>
+    <t>15.28 (±1.1)</t>
+  </si>
+  <si>
+    <t>15.27 (±1.05)</t>
+  </si>
+  <si>
+    <t>25.26 (±1.85)</t>
+  </si>
+  <si>
+    <t>18.67 (±0.22)</t>
+  </si>
+  <si>
+    <t>20.48 (±0.7)</t>
+  </si>
+  <si>
+    <t>14.53 (±2.52)</t>
+  </si>
+  <si>
+    <t>16.2 (±2.01)</t>
+  </si>
+  <si>
+    <t>15.23 (±2.59)</t>
+  </si>
+  <si>
+    <t>14.93 (±1.34)</t>
+  </si>
+  <si>
+    <t>10.78 (±0.7)</t>
+  </si>
+  <si>
+    <t>12.18 (±1.39)</t>
+  </si>
+  <si>
+    <t>12.14 (±1.45)</t>
+  </si>
+  <si>
+    <t>12.43 (±1.25)</t>
+  </si>
+  <si>
+    <t>12.53 (±1.19)</t>
+  </si>
+  <si>
+    <t>20.1 (±3.44)</t>
+  </si>
+  <si>
+    <t>17.73 (±3.62)</t>
+  </si>
+  <si>
+    <t>17.13 (±4.9)</t>
+  </si>
+  <si>
+    <t>13.54 (±0.69)</t>
+  </si>
+  <si>
+    <t>13.45 (±0.55)</t>
+  </si>
+  <si>
+    <t>14.15 (±0.4)</t>
+  </si>
+  <si>
+    <t>11.68 (±1.57)</t>
+  </si>
+  <si>
+    <t>13.31 (±1.53)</t>
+  </si>
+  <si>
+    <t>12.63 (±1.36)</t>
+  </si>
+  <si>
+    <t>13.6 (±0.72)</t>
+  </si>
+  <si>
+    <t>12.32 (±0.84)</t>
+  </si>
+  <si>
+    <t>13.2 (±0.55)</t>
+  </si>
+  <si>
+    <t>12.81 (±0.51)</t>
+  </si>
+  <si>
+    <t>13.66 (±0.71)</t>
+  </si>
+  <si>
+    <t>13.57 (±0.53)</t>
+  </si>
+  <si>
+    <t>13.41 (±1.71)</t>
+  </si>
+  <si>
+    <t>12.28 (±2.33)</t>
+  </si>
+  <si>
+    <t>13.06 (±1.71)</t>
+  </si>
+  <si>
+    <t>11.44 (±2.02)</t>
+  </si>
+  <si>
+    <t>13.04 (±2.02)</t>
+  </si>
+  <si>
+    <t>12.47 (±1.69)</t>
+  </si>
+  <si>
+    <t>12.56 (±0.76)</t>
+  </si>
+  <si>
+    <t>13.03 (±0.64)</t>
+  </si>
+  <si>
+    <t>13.14 (±0.46)</t>
+  </si>
+  <si>
+    <t>10.43 (±2.19)</t>
+  </si>
+  <si>
+    <t>13.15 (±1.5)</t>
+  </si>
+  <si>
+    <t>12.11 (±1.59)</t>
+  </si>
+  <si>
+    <t>10.43 (±3.6)</t>
+  </si>
+  <si>
+    <t>12.36 (±2.63)</t>
+  </si>
+  <si>
+    <t>11.7 (±2.58)</t>
+  </si>
+  <si>
+    <t>804.8 (±620.1)</t>
+  </si>
+  <si>
+    <t>1198.5 (±640.3)</t>
+  </si>
+  <si>
+    <t>974.3 (±466.1)</t>
+  </si>
+  <si>
+    <t>1162.8 (±495.8)</t>
+  </si>
+  <si>
+    <t>1606.3 (±638.8)</t>
+  </si>
+  <si>
+    <t>1406.8 (±448.6)</t>
+  </si>
+  <si>
+    <t>2901.6 (±872.0)</t>
+  </si>
+  <si>
+    <t>4012.1 (±1012.9)</t>
+  </si>
+  <si>
+    <t>3547.1 (±713.7)</t>
+  </si>
+  <si>
+    <t>1558.0 (±1065.4)</t>
+  </si>
+  <si>
+    <t>1883.4 (±1009.4)</t>
+  </si>
+  <si>
+    <t>1721.3 (±829.1)</t>
+  </si>
+  <si>
+    <t>515.0 (±1063.9)</t>
+  </si>
+  <si>
+    <t>536.3 (±1267.5)</t>
+  </si>
+  <si>
+    <t>429.0 (±805.9)</t>
+  </si>
+  <si>
+    <t>1389.3 (±657.6)</t>
+  </si>
+  <si>
+    <t>1914.1 (±730.9)</t>
+  </si>
+  <si>
+    <t>1683.3 (±492.4)</t>
+  </si>
+  <si>
+    <t>277.4 (±615.1)</t>
+  </si>
+  <si>
+    <t>290.9 (±619.5)</t>
+  </si>
+  <si>
+    <t>246.2 (±480.0)</t>
+  </si>
+  <si>
+    <t>825.7 (±1462.6)</t>
+  </si>
+  <si>
+    <t>1136.1 (±1901.8)</t>
+  </si>
+  <si>
+    <t>875.4 (±1353.8)</t>
+  </si>
+  <si>
+    <t>258.4 (±573.4)</t>
+  </si>
+  <si>
+    <t>563.0 (±733.5)</t>
+  </si>
+  <si>
+    <t>354.8 (±513.0)</t>
+  </si>
+  <si>
+    <t>511.6 (±220.4)</t>
+  </si>
+  <si>
+    <t>967.6 (±281.5)</t>
+  </si>
+  <si>
+    <t>751.5 (±215.7)</t>
+  </si>
+  <si>
+    <t>641.0 (±549.1)</t>
+  </si>
+  <si>
+    <t>758.4 (±600.2)</t>
+  </si>
+  <si>
+    <t>682.2 (±435.3)</t>
+  </si>
+  <si>
+    <t>1667.4 (±765.8)</t>
+  </si>
+  <si>
+    <t>1780.0 (±881.9)</t>
+  </si>
+  <si>
+    <t>1749.2 (±686.4)</t>
+  </si>
+  <si>
+    <t>754.4 (±1501.4)</t>
+  </si>
+  <si>
+    <t>892.8 (±1995.8)</t>
+  </si>
+  <si>
+    <t>660.4 (±1348.3)</t>
+  </si>
+  <si>
+    <t>1469.4 (±292.5)</t>
+  </si>
+  <si>
+    <t>2272.4 (±325.7)</t>
+  </si>
+  <si>
+    <t>1865.0 (±257.2)</t>
+  </si>
+  <si>
+    <t>964.9 (±1165.9)</t>
+  </si>
+  <si>
+    <t>1030.5 (±1662.8)</t>
+  </si>
+  <si>
+    <t>972.6 (±1117.0)</t>
+  </si>
+  <si>
+    <t>2496.2 (±1356.1)</t>
+  </si>
+  <si>
+    <t>4409.1 (±1889.1)</t>
+  </si>
+  <si>
+    <t>3564.1 (±1275.4)</t>
+  </si>
+  <si>
+    <t>612.5 (±1410.9)</t>
+  </si>
+  <si>
+    <t>1120.5 (±1610.1)</t>
+  </si>
+  <si>
+    <t>784.4 (±1234.6)</t>
+  </si>
+  <si>
+    <t>945.3 (±1763.3)</t>
+  </si>
+  <si>
+    <t>1023.3 (±1721.4)</t>
+  </si>
+  <si>
+    <t>942.4 (±1405.7)</t>
+  </si>
+  <si>
+    <t>1914.6 (±2369.2)</t>
+  </si>
+  <si>
+    <t>2101.9 (±1627.3)</t>
+  </si>
+  <si>
+    <t>1931.3 (±1495.8)</t>
+  </si>
+  <si>
+    <t>658.8 (±373.3)</t>
+  </si>
+  <si>
+    <t>1159.1 (±435.7)</t>
+  </si>
+  <si>
+    <t>922.1 (±331.6)</t>
+  </si>
+  <si>
+    <t>101.2 (±381.0)</t>
+  </si>
+  <si>
+    <t>185.4 (±562.3)</t>
+  </si>
+  <si>
+    <t>113.5 (±359.4)</t>
+  </si>
+  <si>
+    <t>1552.1 (±395.6)</t>
+  </si>
+  <si>
+    <t>2597.9 (±473.8)</t>
+  </si>
+  <si>
+    <t>2161.0 (±359.1)</t>
+  </si>
+  <si>
+    <t>1029.9 (±566.8)</t>
+  </si>
+  <si>
+    <t>1265.0 (±791.2)</t>
+  </si>
+  <si>
+    <t>1149.0 (±559.0)</t>
+  </si>
+  <si>
+    <t>2147.4 (±624.0)</t>
+  </si>
+  <si>
+    <t>2880.9 (±751.0)</t>
+  </si>
+  <si>
+    <t>2572.4 (±556.0)</t>
+  </si>
+  <si>
+    <t>1565.1 (±844.8)</t>
+  </si>
+  <si>
+    <t>3016.0 (±1077.9)</t>
+  </si>
+  <si>
+    <t>2301.9 (±801.0)</t>
+  </si>
+  <si>
+    <t>1363.6 (±846.2)</t>
+  </si>
+  <si>
+    <t>1478.0 (±1092.7)</t>
+  </si>
+  <si>
+    <t>1443.0 (±748.0)</t>
+  </si>
+  <si>
+    <t>1445.4 (±921.8)</t>
+  </si>
+  <si>
+    <t>1771.0 (±1383.8)</t>
+  </si>
+  <si>
+    <t>1621.5 (±859.1)</t>
+  </si>
+  <si>
+    <t>1320.2 (±293.0)</t>
+  </si>
+  <si>
+    <t>1758.3 (±351.4)</t>
+  </si>
+  <si>
+    <t>1573.4 (±254.0)</t>
+  </si>
+  <si>
+    <t>559.4 (±402.7)</t>
+  </si>
+  <si>
+    <t>1147.3 (±565.1)</t>
+  </si>
+  <si>
+    <t>844.7 (±400.4)</t>
+  </si>
+  <si>
+    <t>548.5 (±539.6)</t>
+  </si>
+  <si>
+    <t>1104.8 (±732.9)</t>
+  </si>
+  <si>
+    <t>823.9 (±510.0)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,43 +1377,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1820.6</v>
+        <v>3003</v>
       </c>
       <c r="D2">
-        <v>275.7</v>
+        <v>1416.2</v>
       </c>
       <c r="E2">
-        <v>16979.5</v>
+        <v>35920.1</v>
       </c>
       <c r="F2">
-        <v>4418.3</v>
+        <v>27676.3</v>
       </c>
       <c r="G2">
-        <v>9.33</v>
+        <v>11.96</v>
       </c>
       <c r="H2">
-        <v>0.88</v>
+        <v>2.43</v>
       </c>
       <c r="I2">
-        <v>1411583</v>
+        <v>4463088</v>
       </c>
       <c r="J2">
-        <v>1202.9</v>
+        <v>804.8</v>
       </c>
       <c r="K2">
-        <v>313</v>
+        <v>620.1</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1523,43 +1421,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>3774.400000000001</v>
+        <v>3990.7</v>
       </c>
       <c r="D3">
-        <v>339.2</v>
+        <v>1552.8</v>
       </c>
       <c r="E3">
-        <v>42985.4</v>
+        <v>52206.1</v>
       </c>
       <c r="F3">
-        <v>5586.8</v>
+        <v>27890.1</v>
       </c>
       <c r="G3">
-        <v>11.39</v>
+        <v>13.08</v>
       </c>
       <c r="H3">
-        <v>0.42</v>
+        <v>1.37</v>
       </c>
       <c r="I3">
-        <v>1408097</v>
+        <v>4355978</v>
       </c>
       <c r="J3">
-        <v>3052.7</v>
+        <v>1198.5</v>
       </c>
       <c r="K3">
-        <v>396.8</v>
+        <v>640.3</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1567,43 +1465,43 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>5593.6</v>
+        <v>6894.1</v>
       </c>
       <c r="D4">
-        <v>507.4</v>
+        <v>2324.2</v>
       </c>
       <c r="E4">
-        <v>59923.3</v>
+        <v>85923.39999999999</v>
       </c>
       <c r="F4">
-        <v>8541.900000000001</v>
+        <v>41109.8</v>
       </c>
       <c r="G4">
-        <v>10.71</v>
+        <v>12.46</v>
       </c>
       <c r="H4">
-        <v>0.51</v>
+        <v>1.32</v>
       </c>
       <c r="I4">
-        <v>2819680</v>
+        <v>8819066</v>
       </c>
       <c r="J4">
-        <v>2125.2</v>
+        <v>974.3</v>
       </c>
       <c r="K4">
-        <v>302.9</v>
+        <v>466.1</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1611,43 +1509,43 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>2752.6</v>
+        <v>6194.4</v>
       </c>
       <c r="D5">
-        <v>397.1</v>
+        <v>1611</v>
       </c>
       <c r="E5">
-        <v>38526.5</v>
+        <v>66931.39999999999</v>
       </c>
       <c r="F5">
-        <v>6312.100000000001</v>
+        <v>28538.7</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>10.81</v>
       </c>
       <c r="H5">
-        <v>0.24</v>
+        <v>1.42</v>
       </c>
       <c r="I5">
-        <v>1544247</v>
+        <v>5756156</v>
       </c>
       <c r="J5">
-        <v>2494.8</v>
+        <v>1162.8</v>
       </c>
       <c r="K5">
-        <v>408.7</v>
+        <v>495.8</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1655,43 +1553,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>5386.400000000001</v>
+        <v>7233</v>
       </c>
       <c r="D6">
-        <v>440.7</v>
+        <v>1897.2</v>
       </c>
       <c r="E6">
-        <v>143716.6</v>
+        <v>90701.3</v>
       </c>
       <c r="F6">
-        <v>8791.200000000001</v>
+        <v>36071.1</v>
       </c>
       <c r="G6">
-        <v>26.68</v>
+        <v>12.54</v>
       </c>
       <c r="H6">
-        <v>0.51</v>
+        <v>1.34</v>
       </c>
       <c r="I6">
-        <v>1385703</v>
+        <v>5646433</v>
       </c>
       <c r="J6">
-        <v>10371.4</v>
+        <v>1606.3</v>
       </c>
       <c r="K6">
-        <v>634.4</v>
+        <v>638.8</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1699,43 +1597,43 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>8110.200000000001</v>
+        <v>13411.9</v>
       </c>
       <c r="D7">
-        <v>770.2</v>
+        <v>2798.6</v>
       </c>
       <c r="E7">
-        <v>189394</v>
+        <v>160413.1</v>
       </c>
       <c r="F7">
-        <v>14061.4</v>
+        <v>51154.6</v>
       </c>
       <c r="G7">
-        <v>23.35</v>
+        <v>11.96</v>
       </c>
       <c r="H7">
-        <v>0.44</v>
+        <v>1.09</v>
       </c>
       <c r="I7">
-        <v>2929950</v>
+        <v>11402589</v>
       </c>
       <c r="J7">
-        <v>6464.1</v>
+        <v>1406.8</v>
       </c>
       <c r="K7">
-        <v>479.9</v>
+        <v>448.6</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1743,43 +1641,43 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>2510.8</v>
+        <v>7565.900000000001</v>
       </c>
       <c r="D8">
-        <v>822.8</v>
+        <v>1885.4</v>
       </c>
       <c r="E8">
-        <v>32155.1</v>
+        <v>103109.7</v>
       </c>
       <c r="F8">
-        <v>10792.4</v>
+        <v>30988.2</v>
       </c>
       <c r="G8">
-        <v>12.81</v>
+        <v>13.63</v>
       </c>
       <c r="H8">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I8">
-        <v>4463088</v>
+        <v>3553509</v>
       </c>
       <c r="J8">
-        <v>720.5</v>
+        <v>2901.6</v>
       </c>
       <c r="K8">
-        <v>241.8</v>
+        <v>872</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1787,43 +1685,43 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>4269</v>
+        <v>10508.7</v>
       </c>
       <c r="D9">
-        <v>899.9999999999999</v>
+        <v>2104.3</v>
       </c>
       <c r="E9">
-        <v>50725.7</v>
+        <v>134696.2</v>
       </c>
       <c r="F9">
-        <v>14202.5</v>
+        <v>34006.2</v>
       </c>
       <c r="G9">
-        <v>11.88</v>
+        <v>12.82</v>
       </c>
       <c r="H9">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9">
-        <v>4355978</v>
+        <v>3357257</v>
       </c>
       <c r="J9">
-        <v>1164.5</v>
+        <v>4012.1</v>
       </c>
       <c r="K9">
-        <v>326</v>
+        <v>1012.9</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1831,43 +1729,43 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>6710.599999999999</v>
+        <v>18059.9</v>
       </c>
       <c r="D10">
-        <v>1579.1</v>
+        <v>3130.5</v>
       </c>
       <c r="E10">
-        <v>81709.5</v>
+        <v>245130.4</v>
       </c>
       <c r="F10">
-        <v>22145</v>
+        <v>49323.9</v>
       </c>
       <c r="G10">
-        <v>12.18</v>
+        <v>13.57</v>
       </c>
       <c r="H10">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I10">
-        <v>8819066</v>
+        <v>6910766</v>
       </c>
       <c r="J10">
-        <v>926.5</v>
+        <v>3547.1</v>
       </c>
       <c r="K10">
-        <v>251.1</v>
+        <v>713.7</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1875,43 +1773,43 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>5336.200000000001</v>
+        <v>2590.4</v>
       </c>
       <c r="D11">
-        <v>1041</v>
+        <v>1256.3</v>
       </c>
       <c r="E11">
-        <v>56598.8</v>
+        <v>32206</v>
       </c>
       <c r="F11">
-        <v>14943.3</v>
+        <v>22023</v>
       </c>
       <c r="G11">
-        <v>10.61</v>
+        <v>12.43</v>
       </c>
       <c r="H11">
-        <v>0.61</v>
+        <v>1.67</v>
       </c>
       <c r="I11">
-        <v>5756156</v>
+        <v>2067180</v>
       </c>
       <c r="J11">
-        <v>983.3</v>
+        <v>1558</v>
       </c>
       <c r="K11">
-        <v>259.6</v>
+        <v>1065.4</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1919,43 +1817,43 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>6663.4</v>
+        <v>3075</v>
       </c>
       <c r="D12">
-        <v>1247.1</v>
+        <v>1237</v>
       </c>
       <c r="E12">
-        <v>71872.70000000001</v>
+        <v>37002.8</v>
       </c>
       <c r="F12">
-        <v>18243.5</v>
+        <v>19831.7</v>
       </c>
       <c r="G12">
-        <v>10.79</v>
+        <v>12.03</v>
       </c>
       <c r="H12">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="I12">
-        <v>5646433</v>
+        <v>1964639</v>
       </c>
       <c r="J12">
-        <v>1272.9</v>
+        <v>1883.4</v>
       </c>
       <c r="K12">
-        <v>323.1</v>
+        <v>1009.4</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1963,43 +1861,43 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>11959.4</v>
+        <v>5623.5</v>
       </c>
       <c r="D13">
-        <v>2071.8</v>
+        <v>1922.8</v>
       </c>
       <c r="E13">
-        <v>129756.6</v>
+        <v>69400.2</v>
       </c>
       <c r="F13">
-        <v>31186.9</v>
+        <v>33429.4</v>
       </c>
       <c r="G13">
-        <v>10.85</v>
+        <v>12.34</v>
       </c>
       <c r="H13">
-        <v>0.62</v>
+        <v>1.29</v>
       </c>
       <c r="I13">
-        <v>11402589</v>
+        <v>4031819</v>
       </c>
       <c r="J13">
-        <v>1138</v>
+        <v>1721.3</v>
       </c>
       <c r="K13">
-        <v>273.5</v>
+        <v>829.1</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2007,43 +1905,43 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>6379.4</v>
+        <v>103.4</v>
       </c>
       <c r="D14">
-        <v>1186.7</v>
+        <v>205</v>
       </c>
       <c r="E14">
-        <v>87261.39999999999</v>
+        <v>2291.6</v>
       </c>
       <c r="F14">
-        <v>14421.8</v>
+        <v>4733.7</v>
       </c>
       <c r="G14">
-        <v>13.68</v>
+        <v>22.16</v>
       </c>
       <c r="H14">
-        <v>0.24</v>
+        <v>0.62</v>
       </c>
       <c r="I14">
-        <v>3553509</v>
+        <v>444955</v>
       </c>
       <c r="J14">
-        <v>2455.6</v>
+        <v>515</v>
       </c>
       <c r="K14">
-        <v>405.8</v>
+        <v>1063.9</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2051,43 +1949,43 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>9612.800000000001</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>1309.5</v>
+        <v>235.2</v>
       </c>
       <c r="E15">
-        <v>120675</v>
+        <v>2299.8</v>
       </c>
       <c r="F15">
-        <v>16809.5</v>
+        <v>5435.2</v>
       </c>
       <c r="G15">
-        <v>12.55</v>
+        <v>23.47</v>
       </c>
       <c r="H15">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="I15">
-        <v>3357257</v>
+        <v>428827</v>
       </c>
       <c r="J15">
-        <v>3594.5</v>
+        <v>536.3</v>
       </c>
       <c r="K15">
-        <v>500.7</v>
+        <v>1267.5</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2095,43 +1993,43 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16">
-        <v>15983.8</v>
+        <v>178.6</v>
       </c>
       <c r="D16">
-        <v>2393.5</v>
+        <v>308.1</v>
       </c>
       <c r="E16">
-        <v>215233.4</v>
+        <v>3748.4</v>
       </c>
       <c r="F16">
-        <v>30250.1</v>
+        <v>7042.1</v>
       </c>
       <c r="G16">
-        <v>13.47</v>
+        <v>20.99</v>
       </c>
       <c r="H16">
-        <v>0.11</v>
+        <v>1.18</v>
       </c>
       <c r="I16">
-        <v>6910766</v>
+        <v>873782</v>
       </c>
       <c r="J16">
-        <v>3114.5</v>
+        <v>429</v>
       </c>
       <c r="K16">
-        <v>437.7</v>
+        <v>805.9</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2139,43 +2037,43 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>1801.8</v>
+        <v>6269.2</v>
       </c>
       <c r="D17">
-        <v>665.6999999999999</v>
+        <v>1948.9</v>
       </c>
       <c r="E17">
-        <v>19679.5</v>
+        <v>74670.8</v>
       </c>
       <c r="F17">
-        <v>8557.599999999999</v>
+        <v>35341.6</v>
       </c>
       <c r="G17">
-        <v>10.92</v>
+        <v>11.91</v>
       </c>
       <c r="H17">
-        <v>0.52</v>
+        <v>1.48</v>
       </c>
       <c r="I17">
-        <v>2067180</v>
+        <v>5374611</v>
       </c>
       <c r="J17">
-        <v>952</v>
+        <v>1389.3</v>
       </c>
       <c r="K17">
-        <v>414</v>
+        <v>657.6</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2183,43 +2081,43 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>2459.4</v>
+        <v>8507.5</v>
       </c>
       <c r="D18">
-        <v>582.9000000000001</v>
+        <v>2172.1</v>
       </c>
       <c r="E18">
-        <v>25967.8</v>
+        <v>100584</v>
       </c>
       <c r="F18">
-        <v>7070</v>
+        <v>38405.9</v>
       </c>
       <c r="G18">
-        <v>10.56</v>
+        <v>11.82</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>1.19</v>
       </c>
       <c r="I18">
-        <v>1964639</v>
+        <v>5254955</v>
       </c>
       <c r="J18">
-        <v>1321.8</v>
+        <v>1914.1</v>
       </c>
       <c r="K18">
-        <v>359.9</v>
+        <v>730.9</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2227,43 +2125,43 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>4244.4</v>
+        <v>14744.7</v>
       </c>
       <c r="D19">
-        <v>1146</v>
+        <v>3197.7</v>
       </c>
       <c r="E19">
-        <v>46865.4</v>
+        <v>178927.3</v>
       </c>
       <c r="F19">
-        <v>13891.3</v>
+        <v>52337.2</v>
       </c>
       <c r="G19">
-        <v>11.04</v>
+        <v>12.14</v>
       </c>
       <c r="H19">
-        <v>0.23</v>
+        <v>0.75</v>
       </c>
       <c r="I19">
-        <v>4031819</v>
+        <v>10629566</v>
       </c>
       <c r="J19">
-        <v>1162.4</v>
+        <v>1683.3</v>
       </c>
       <c r="K19">
-        <v>344.5</v>
+        <v>492.4</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2271,43 +2169,43 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>197.6</v>
+        <v>420.9</v>
       </c>
       <c r="D20">
-        <v>80.90000000000001</v>
+        <v>893.1999999999999</v>
       </c>
       <c r="E20">
-        <v>2727.1</v>
+        <v>8156.099999999999</v>
       </c>
       <c r="F20">
-        <v>1404.4</v>
+        <v>18088.5</v>
       </c>
       <c r="G20">
-        <v>13.8</v>
+        <v>19.38</v>
       </c>
       <c r="H20">
-        <v>1.03</v>
+        <v>0.59</v>
       </c>
       <c r="I20">
-        <v>444955</v>
+        <v>2940548</v>
       </c>
       <c r="J20">
-        <v>612.9</v>
+        <v>277.4</v>
       </c>
       <c r="K20">
-        <v>315.6</v>
+        <v>615.1</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2315,43 +2213,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>296.4</v>
+        <v>643.3</v>
       </c>
       <c r="D21">
-        <v>145.1</v>
+        <v>927.7</v>
       </c>
       <c r="E21">
-        <v>4620.999999999999</v>
+        <v>8472.6</v>
       </c>
       <c r="F21">
-        <v>2479.2</v>
+        <v>18046.3</v>
       </c>
       <c r="G21">
-        <v>15.59</v>
+        <v>13.17</v>
       </c>
       <c r="H21">
-        <v>0.49</v>
+        <v>3.71</v>
       </c>
       <c r="I21">
-        <v>428827</v>
+        <v>2912821</v>
       </c>
       <c r="J21">
-        <v>1077.6</v>
+        <v>290.9</v>
       </c>
       <c r="K21">
-        <v>578.1</v>
+        <v>619.5</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2359,43 +2257,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>482.8</v>
+        <v>973.7</v>
       </c>
       <c r="D22">
-        <v>187.1</v>
+        <v>1403.1</v>
       </c>
       <c r="E22">
-        <v>6990.699999999999</v>
+        <v>14408.9</v>
       </c>
       <c r="F22">
-        <v>2983.4</v>
+        <v>28095.2</v>
       </c>
       <c r="G22">
-        <v>14.48</v>
+        <v>14.8</v>
       </c>
       <c r="H22">
-        <v>0.41</v>
+        <v>3.08</v>
       </c>
       <c r="I22">
-        <v>873782</v>
+        <v>5853369</v>
       </c>
       <c r="J22">
-        <v>800.1</v>
+        <v>246.2</v>
       </c>
       <c r="K22">
-        <v>341.4</v>
+        <v>480</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2403,43 +2301,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>6171.4</v>
+        <v>246.9</v>
       </c>
       <c r="D23">
-        <v>1365</v>
+        <v>509.2</v>
       </c>
       <c r="E23">
-        <v>73373.7</v>
+        <v>5698.3</v>
       </c>
       <c r="F23">
-        <v>18448.1</v>
+        <v>10093.9</v>
       </c>
       <c r="G23">
-        <v>11.89</v>
+        <v>23.08</v>
       </c>
       <c r="H23">
-        <v>0.29</v>
+        <v>2.19</v>
       </c>
       <c r="I23">
-        <v>5374611</v>
+        <v>690140</v>
       </c>
       <c r="J23">
-        <v>1365.2</v>
+        <v>825.7</v>
       </c>
       <c r="K23">
-        <v>343.2</v>
+        <v>1462.6</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2447,43 +2345,43 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>9570</v>
+        <v>337.7</v>
       </c>
       <c r="D24">
-        <v>1418.9</v>
+        <v>541.3</v>
       </c>
       <c r="E24">
-        <v>103511.1</v>
+        <v>7124.2</v>
       </c>
       <c r="F24">
-        <v>20823.3</v>
+        <v>11926.2</v>
       </c>
       <c r="G24">
-        <v>10.82</v>
+        <v>21.1</v>
       </c>
       <c r="H24">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="I24">
-        <v>5254955</v>
+        <v>627100</v>
       </c>
       <c r="J24">
-        <v>1969.8</v>
+        <v>1136.1</v>
       </c>
       <c r="K24">
-        <v>396.3</v>
+        <v>1901.8</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2491,43 +2389,43 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>15732</v>
+        <v>545</v>
       </c>
       <c r="D25">
-        <v>2638.8</v>
+        <v>717.5</v>
       </c>
       <c r="E25">
-        <v>182739.9</v>
+        <v>11531.4</v>
       </c>
       <c r="F25">
-        <v>37384.39999999999</v>
+        <v>17833</v>
       </c>
       <c r="G25">
-        <v>11.62</v>
+        <v>21.16</v>
       </c>
       <c r="H25">
-        <v>0.36</v>
+        <v>2.1</v>
       </c>
       <c r="I25">
-        <v>10629566</v>
+        <v>1317240</v>
       </c>
       <c r="J25">
-        <v>1719.2</v>
+        <v>875.4</v>
       </c>
       <c r="K25">
-        <v>351.7</v>
+        <v>1353.8</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2535,43 +2433,43 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>692.1999999999999</v>
+        <v>491.5</v>
       </c>
       <c r="D26">
-        <v>201.5</v>
+        <v>920.2</v>
       </c>
       <c r="E26">
-        <v>8611.5</v>
+        <v>7124.599999999999</v>
       </c>
       <c r="F26">
-        <v>3098.2</v>
+        <v>15809.2</v>
       </c>
       <c r="G26">
-        <v>12.44</v>
+        <v>14.5</v>
       </c>
       <c r="H26">
-        <v>0.66</v>
+        <v>1.75</v>
       </c>
       <c r="I26">
-        <v>2940548</v>
+        <v>2756903</v>
       </c>
       <c r="J26">
-        <v>292.9</v>
+        <v>258.4</v>
       </c>
       <c r="K26">
-        <v>105.4</v>
+        <v>573.4</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2579,43 +2477,43 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>1373.8</v>
+        <v>745.4</v>
       </c>
       <c r="D27">
-        <v>455.4</v>
+        <v>1075.5</v>
       </c>
       <c r="E27">
-        <v>13113.7</v>
+        <v>15277.3</v>
       </c>
       <c r="F27">
-        <v>4846.500000000001</v>
+        <v>19903.5</v>
       </c>
       <c r="G27">
-        <v>9.550000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="H27">
-        <v>0.27</v>
+        <v>1.18</v>
       </c>
       <c r="I27">
-        <v>2912821</v>
+        <v>2713428</v>
       </c>
       <c r="J27">
-        <v>450.2</v>
+        <v>563</v>
       </c>
       <c r="K27">
-        <v>166.4</v>
+        <v>733.5</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2623,43 +2521,43 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>2049.8</v>
+        <v>1118.1</v>
       </c>
       <c r="D28">
-        <v>685.1</v>
+        <v>1489.3</v>
       </c>
       <c r="E28">
-        <v>21603.7</v>
+        <v>19409.1</v>
       </c>
       <c r="F28">
-        <v>9082.6</v>
+        <v>28061.8</v>
       </c>
       <c r="G28">
-        <v>10.54</v>
+        <v>17.36</v>
       </c>
       <c r="H28">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="I28">
-        <v>5853369</v>
+        <v>5470331</v>
       </c>
       <c r="J28">
-        <v>369.1</v>
+        <v>354.8</v>
       </c>
       <c r="K28">
-        <v>155.2</v>
+        <v>513</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2667,43 +2565,43 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>293.4</v>
+        <v>14510.3</v>
       </c>
       <c r="D29">
-        <v>122.9</v>
+        <v>4246.7</v>
       </c>
       <c r="E29">
-        <v>5501.3</v>
+        <v>174457.7</v>
       </c>
       <c r="F29">
-        <v>2909.1</v>
+        <v>75150.5</v>
       </c>
       <c r="G29">
-        <v>18.75</v>
+        <v>12.02</v>
       </c>
       <c r="H29">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="I29">
-        <v>690140</v>
+        <v>34103672</v>
       </c>
       <c r="J29">
-        <v>797.1</v>
+        <v>511.6</v>
       </c>
       <c r="K29">
-        <v>421.5</v>
+        <v>220.4</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2711,43 +2609,43 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>375.9999999999999</v>
+        <v>23811</v>
       </c>
       <c r="D30">
-        <v>158.2</v>
+        <v>5136.2</v>
       </c>
       <c r="E30">
-        <v>5213.7</v>
+        <v>312290.2</v>
       </c>
       <c r="F30">
-        <v>2819.9</v>
+        <v>90863.60000000001</v>
       </c>
       <c r="G30">
-        <v>13.87</v>
+        <v>13.12</v>
       </c>
       <c r="H30">
-        <v>1.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I30">
-        <v>627100</v>
+        <v>32275376</v>
       </c>
       <c r="J30">
-        <v>831.4</v>
+        <v>967.6</v>
       </c>
       <c r="K30">
-        <v>449.7</v>
+        <v>281.5</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2755,43 +2653,43 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31">
-        <v>627.8</v>
+        <v>38212.1</v>
       </c>
       <c r="D31">
-        <v>274.1</v>
+        <v>8027.5</v>
       </c>
       <c r="E31">
-        <v>10417.5</v>
+        <v>498856.7</v>
       </c>
       <c r="F31">
-        <v>5399.3</v>
+        <v>143206.6</v>
       </c>
       <c r="G31">
-        <v>16.59</v>
+        <v>13.05</v>
       </c>
       <c r="H31">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="I31">
-        <v>1317240</v>
+        <v>66379048</v>
       </c>
       <c r="J31">
-        <v>790.9</v>
+        <v>751.5</v>
       </c>
       <c r="K31">
-        <v>409.9</v>
+        <v>215.7</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2799,43 +2697,43 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>686.4000000000001</v>
+        <v>2633</v>
       </c>
       <c r="D32">
-        <v>287.2</v>
+        <v>1805.5</v>
       </c>
       <c r="E32">
-        <v>11150.2</v>
+        <v>34754.4</v>
       </c>
       <c r="F32">
-        <v>5214.5</v>
+        <v>29770.7</v>
       </c>
       <c r="G32">
-        <v>16.24</v>
+        <v>13.2</v>
       </c>
       <c r="H32">
-        <v>0.57</v>
+        <v>1.34</v>
       </c>
       <c r="I32">
-        <v>2756903</v>
+        <v>5421813</v>
       </c>
       <c r="J32">
-        <v>404.4</v>
+        <v>641</v>
       </c>
       <c r="K32">
-        <v>189.1</v>
+        <v>549.1</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2843,43 +2741,43 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>1179.4</v>
+        <v>2760.6</v>
       </c>
       <c r="D33">
-        <v>374.1</v>
+        <v>1874.5</v>
       </c>
       <c r="E33">
-        <v>16811.8</v>
+        <v>39134.7</v>
       </c>
       <c r="F33">
-        <v>6268.1</v>
+        <v>30972.1</v>
       </c>
       <c r="G33">
-        <v>14.25</v>
+        <v>14.18</v>
       </c>
       <c r="H33">
-        <v>0.61</v>
+        <v>0.95</v>
       </c>
       <c r="I33">
-        <v>2713428</v>
+        <v>5160116</v>
       </c>
       <c r="J33">
-        <v>619.6</v>
+        <v>758.4</v>
       </c>
       <c r="K33">
-        <v>231</v>
+        <v>600.2</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2887,43 +2785,43 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>1806</v>
+        <v>5350.1</v>
       </c>
       <c r="D34">
-        <v>569.1</v>
+        <v>2965.3</v>
       </c>
       <c r="E34">
-        <v>27950.3</v>
+        <v>72191.8</v>
       </c>
       <c r="F34">
-        <v>10611.5</v>
+        <v>46062</v>
       </c>
       <c r="G34">
-        <v>15.48</v>
+        <v>13.49</v>
       </c>
       <c r="H34">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I34">
-        <v>5470331</v>
+        <v>10581929</v>
       </c>
       <c r="J34">
-        <v>510.9</v>
+        <v>682.2</v>
       </c>
       <c r="K34">
-        <v>194</v>
+        <v>435.3</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2931,43 +2829,43 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>13328.6</v>
+        <v>6469.1</v>
       </c>
       <c r="D35">
-        <v>3711.3</v>
+        <v>2209</v>
       </c>
       <c r="E35">
-        <v>183543.9</v>
+        <v>84024.60000000001</v>
       </c>
       <c r="F35">
-        <v>49339.3</v>
+        <v>38593.6</v>
       </c>
       <c r="G35">
-        <v>13.77</v>
+        <v>12.99</v>
       </c>
       <c r="H35">
-        <v>0.1</v>
+        <v>1.14</v>
       </c>
       <c r="I35">
-        <v>34103672</v>
+        <v>5039392</v>
       </c>
       <c r="J35">
-        <v>538.2</v>
+        <v>1667.4</v>
       </c>
       <c r="K35">
-        <v>144.7</v>
+        <v>765.8</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2975,43 +2873,43 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>23570.4</v>
+        <v>6376.7</v>
       </c>
       <c r="D36">
-        <v>4634.2</v>
+        <v>2297.8</v>
       </c>
       <c r="E36">
-        <v>274447.4</v>
+        <v>83028.10000000001</v>
       </c>
       <c r="F36">
-        <v>66866.59999999999</v>
+        <v>41138.6</v>
       </c>
       <c r="G36">
-        <v>11.64</v>
+        <v>13.02</v>
       </c>
       <c r="H36">
-        <v>0.46</v>
+        <v>1.29</v>
       </c>
       <c r="I36">
-        <v>32275376</v>
+        <v>4664606</v>
       </c>
       <c r="J36">
-        <v>850.3</v>
+        <v>1780</v>
       </c>
       <c r="K36">
-        <v>207.2</v>
+        <v>881.9</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3019,43 +2917,43 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>36878</v>
+        <v>12817.6</v>
       </c>
       <c r="D37">
-        <v>7980</v>
+        <v>3686.6</v>
       </c>
       <c r="E37">
-        <v>471649.1</v>
+        <v>169746.8</v>
       </c>
       <c r="F37">
-        <v>116464.7</v>
+        <v>66612.10000000001</v>
       </c>
       <c r="G37">
-        <v>12.79</v>
+        <v>13.24</v>
       </c>
       <c r="H37">
-        <v>0.32</v>
+        <v>1.08</v>
       </c>
       <c r="I37">
-        <v>66379048</v>
+        <v>9703998</v>
       </c>
       <c r="J37">
-        <v>710.5</v>
+        <v>1749.2</v>
       </c>
       <c r="K37">
-        <v>175.5</v>
+        <v>686.4</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3063,43 +2961,43 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>135.2</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>155.7</v>
+        <v>97.7</v>
       </c>
       <c r="E38">
-        <v>1248.3</v>
+        <v>1325.3</v>
       </c>
       <c r="F38">
-        <v>1666.3</v>
+        <v>2637.5</v>
       </c>
       <c r="G38">
-        <v>9.23</v>
+        <v>34.88</v>
       </c>
       <c r="H38">
-        <v>0.79</v>
+        <v>5.68</v>
       </c>
       <c r="I38">
-        <v>1919079</v>
+        <v>175666</v>
       </c>
       <c r="J38">
-        <v>65</v>
+        <v>754.4</v>
       </c>
       <c r="K38">
-        <v>86.8</v>
+        <v>1501.4</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3107,43 +3005,43 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>190.2</v>
+        <v>57.2</v>
       </c>
       <c r="D39">
-        <v>151</v>
+        <v>131.9</v>
       </c>
       <c r="E39">
-        <v>2171.7</v>
+        <v>1662.2</v>
       </c>
       <c r="F39">
-        <v>1845.6</v>
+        <v>3715.7</v>
       </c>
       <c r="G39">
-        <v>11.42</v>
+        <v>29.06</v>
       </c>
       <c r="H39">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="I39">
-        <v>1787876</v>
+        <v>186172</v>
       </c>
       <c r="J39">
-        <v>121.5</v>
+        <v>892.8</v>
       </c>
       <c r="K39">
-        <v>103.2</v>
+        <v>1995.8</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3151,43 +3049,43 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>250.8</v>
+        <v>63.3</v>
       </c>
       <c r="D40">
-        <v>299.5</v>
+        <v>149.8</v>
       </c>
       <c r="E40">
-        <v>2839</v>
+        <v>2389.4</v>
       </c>
       <c r="F40">
-        <v>3210.1</v>
+        <v>4878.6</v>
       </c>
       <c r="G40">
-        <v>11.32</v>
+        <v>37.75</v>
       </c>
       <c r="H40">
-        <v>0.33</v>
+        <v>3.64</v>
       </c>
       <c r="I40">
-        <v>3706955</v>
+        <v>361838</v>
       </c>
       <c r="J40">
-        <v>76.59999999999999</v>
+        <v>660.4</v>
       </c>
       <c r="K40">
-        <v>86.59999999999999</v>
+        <v>1348.3</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3195,131 +3093,131 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>61910.4</v>
+        <v>36973</v>
       </c>
       <c r="D41">
-        <v>161330</v>
+        <v>5758</v>
       </c>
       <c r="E41">
-        <v>771695.5</v>
+        <v>428002.1</v>
       </c>
       <c r="F41">
-        <v>2283803.5</v>
+        <v>85192.10000000001</v>
       </c>
       <c r="G41">
-        <v>12.46</v>
+        <v>11.58</v>
       </c>
       <c r="H41">
-        <v>1.23</v>
+        <v>0.43</v>
       </c>
       <c r="I41">
-        <v>82262423</v>
+        <v>29127637</v>
       </c>
       <c r="J41">
-        <v>938.1</v>
+        <v>1469.4</v>
       </c>
       <c r="K41">
-        <v>2776.2</v>
+        <v>292.5</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>1935</v>
+        <v>51452.8</v>
       </c>
       <c r="D42">
-        <v>844.9</v>
+        <v>5800.4</v>
       </c>
       <c r="E42">
-        <v>26380.5</v>
+        <v>643680.4</v>
       </c>
       <c r="F42">
-        <v>11904.3</v>
+        <v>92249.60000000001</v>
       </c>
       <c r="G42">
-        <v>13.63</v>
+        <v>12.51</v>
       </c>
       <c r="H42">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I42">
-        <v>5421813</v>
+        <v>28325684</v>
       </c>
       <c r="J42">
-        <v>486.6</v>
+        <v>2272.4</v>
       </c>
       <c r="K42">
-        <v>219.6</v>
+        <v>325.7</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>2430.8</v>
+        <v>88337.3</v>
       </c>
       <c r="D43">
-        <v>580.9</v>
+        <v>10188.5</v>
       </c>
       <c r="E43">
-        <v>29202.9</v>
+        <v>1097545.2</v>
       </c>
       <c r="F43">
-        <v>8105.900000000001</v>
+        <v>151345.3</v>
       </c>
       <c r="G43">
-        <v>12.01</v>
+        <v>12.42</v>
       </c>
       <c r="H43">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I43">
-        <v>5160116</v>
+        <v>58849945</v>
       </c>
       <c r="J43">
-        <v>565.9</v>
+        <v>1865</v>
       </c>
       <c r="K43">
-        <v>157.1</v>
+        <v>257.2</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3327,131 +3225,131 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>4339.6</v>
+        <v>821.6</v>
       </c>
       <c r="D44">
-        <v>1500.5</v>
+        <v>707.1</v>
       </c>
       <c r="E44">
-        <v>55032.3</v>
+        <v>9791.6</v>
       </c>
       <c r="F44">
-        <v>19577.2</v>
+        <v>11831.2</v>
       </c>
       <c r="G44">
-        <v>12.68</v>
+        <v>11.92</v>
       </c>
       <c r="H44">
-        <v>0.1</v>
+        <v>2.22</v>
       </c>
       <c r="I44">
-        <v>10581929</v>
+        <v>1014773</v>
       </c>
       <c r="J44">
-        <v>520.1</v>
+        <v>964.9</v>
       </c>
       <c r="K44">
-        <v>185</v>
+        <v>1165.9</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="N44" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>6066.8</v>
+        <v>574.9000000000001</v>
       </c>
       <c r="D45">
-        <v>906.8</v>
+        <v>772.2</v>
       </c>
       <c r="E45">
-        <v>72819.2</v>
+        <v>9051.1</v>
       </c>
       <c r="F45">
-        <v>13413.3</v>
+        <v>14604.5</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>15.74</v>
       </c>
       <c r="H45">
-        <v>0.37</v>
+        <v>1.82</v>
       </c>
       <c r="I45">
-        <v>5039392</v>
+        <v>878334</v>
       </c>
       <c r="J45">
-        <v>1445</v>
+        <v>1030.5</v>
       </c>
       <c r="K45">
-        <v>266.2</v>
+        <v>1662.8</v>
       </c>
       <c r="L45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>6507.4</v>
+        <v>1332.7</v>
       </c>
       <c r="D46">
-        <v>1077.8</v>
+        <v>1144.7</v>
       </c>
       <c r="E46">
-        <v>73391.40000000001</v>
+        <v>18412.4</v>
       </c>
       <c r="F46">
-        <v>16205.8</v>
+        <v>21145.9</v>
       </c>
       <c r="G46">
-        <v>11.28</v>
+        <v>13.82</v>
       </c>
       <c r="H46">
-        <v>0.53</v>
+        <v>2.15</v>
       </c>
       <c r="I46">
-        <v>4664606</v>
+        <v>1893107</v>
       </c>
       <c r="J46">
-        <v>1573.4</v>
+        <v>972.6</v>
       </c>
       <c r="K46">
-        <v>347.4</v>
+        <v>1117</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M46" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N46" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3459,131 +3357,131 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>12574.2</v>
+        <v>2749.5</v>
       </c>
       <c r="D47">
-        <v>1752.2</v>
+        <v>1050.2</v>
       </c>
       <c r="E47">
-        <v>150552.6</v>
+        <v>36734.2</v>
       </c>
       <c r="F47">
-        <v>27181.7</v>
+        <v>19955.8</v>
       </c>
       <c r="G47">
-        <v>11.97</v>
+        <v>13.36</v>
       </c>
       <c r="H47">
-        <v>0.44</v>
+        <v>1.56</v>
       </c>
       <c r="I47">
-        <v>9703998</v>
+        <v>1471590</v>
       </c>
       <c r="J47">
-        <v>1551.4</v>
+        <v>2496.2</v>
       </c>
       <c r="K47">
-        <v>280.1</v>
+        <v>1356.1</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>26.8</v>
+        <v>3749.1</v>
       </c>
       <c r="D48">
-        <v>16.3</v>
+        <v>1246.5</v>
       </c>
       <c r="E48">
-        <v>1063.8</v>
+        <v>57299.2</v>
       </c>
       <c r="F48">
-        <v>652.8000000000001</v>
+        <v>24549.3</v>
       </c>
       <c r="G48">
-        <v>39.69</v>
+        <v>15.28</v>
       </c>
       <c r="H48">
-        <v>0.14</v>
+        <v>1.1</v>
       </c>
       <c r="I48">
-        <v>175666</v>
+        <v>1299555</v>
       </c>
       <c r="J48">
-        <v>605.6</v>
+        <v>4409.1</v>
       </c>
       <c r="K48">
-        <v>371.6</v>
+        <v>1889.1</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>77.80000000000001</v>
+        <v>6467.9</v>
       </c>
       <c r="D49">
-        <v>33.4</v>
+        <v>1747.2</v>
       </c>
       <c r="E49">
-        <v>1865.9</v>
+        <v>98767.7</v>
       </c>
       <c r="F49">
-        <v>1004.9</v>
+        <v>35342.7</v>
       </c>
       <c r="G49">
-        <v>23.98</v>
+        <v>15.27</v>
       </c>
       <c r="H49">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="I49">
-        <v>186172</v>
+        <v>2771145</v>
       </c>
       <c r="J49">
-        <v>1002.2</v>
+        <v>3564.1</v>
       </c>
       <c r="K49">
-        <v>539.8</v>
+        <v>1275.4</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N49" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3591,131 +3489,131 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50">
-        <v>85.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D50">
-        <v>48.5</v>
+        <v>191.6</v>
       </c>
       <c r="E50">
-        <v>2477.2</v>
+        <v>1887</v>
       </c>
       <c r="F50">
-        <v>1576.4</v>
+        <v>4347</v>
       </c>
       <c r="G50">
-        <v>28.94</v>
+        <v>25.26</v>
       </c>
       <c r="H50">
-        <v>1.29</v>
+        <v>1.85</v>
       </c>
       <c r="I50">
-        <v>361838</v>
+        <v>308093</v>
       </c>
       <c r="J50">
-        <v>684.6</v>
+        <v>612.5</v>
       </c>
       <c r="K50">
-        <v>435.7</v>
+        <v>1410.9</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>28039.2</v>
+        <v>188.3</v>
       </c>
       <c r="D51">
-        <v>5637</v>
+        <v>265.4</v>
       </c>
       <c r="E51">
-        <v>313670.3</v>
+        <v>3516.4</v>
       </c>
       <c r="F51">
-        <v>70253.60000000001</v>
+        <v>5052.8</v>
       </c>
       <c r="G51">
-        <v>11.19</v>
+        <v>18.67</v>
       </c>
       <c r="H51">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I51">
-        <v>29127637</v>
+        <v>313827</v>
       </c>
       <c r="J51">
-        <v>1076.9</v>
+        <v>1120.5</v>
       </c>
       <c r="K51">
-        <v>241.2</v>
+        <v>1610.1</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>45990.6</v>
+        <v>238.2</v>
       </c>
       <c r="D52">
-        <v>4698.8</v>
+        <v>396.6</v>
       </c>
       <c r="E52">
-        <v>527596.6</v>
+        <v>4878.2</v>
       </c>
       <c r="F52">
-        <v>66277.39999999999</v>
+        <v>7678.2</v>
       </c>
       <c r="G52">
-        <v>11.47</v>
+        <v>20.48</v>
       </c>
       <c r="H52">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="I52">
-        <v>28325684</v>
+        <v>621920</v>
       </c>
       <c r="J52">
-        <v>1862.6</v>
+        <v>784.4</v>
       </c>
       <c r="K52">
-        <v>234</v>
+        <v>1234.6</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3723,131 +3621,131 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>74025.60000000001</v>
+        <v>160.4</v>
       </c>
       <c r="D53">
-        <v>9812.700000000001</v>
+        <v>231.2</v>
       </c>
       <c r="E53">
-        <v>869892.2</v>
+        <v>2330.6</v>
       </c>
       <c r="F53">
-        <v>132785.4</v>
+        <v>4347.2</v>
       </c>
       <c r="G53">
-        <v>11.75</v>
+        <v>14.53</v>
       </c>
       <c r="H53">
-        <v>0.21</v>
+        <v>2.52</v>
       </c>
       <c r="I53">
-        <v>58849945</v>
+        <v>246538</v>
       </c>
       <c r="J53">
-        <v>1478.2</v>
+        <v>945.3</v>
       </c>
       <c r="K53">
-        <v>225.6</v>
+        <v>1763.3</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="N53" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>414.8</v>
+        <v>167.2</v>
       </c>
       <c r="D54">
-        <v>189.2</v>
+        <v>231.8</v>
       </c>
       <c r="E54">
-        <v>3881.5</v>
+        <v>2708.5</v>
       </c>
       <c r="F54">
-        <v>1922.2</v>
+        <v>4556.3</v>
       </c>
       <c r="G54">
-        <v>9.359999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="H54">
-        <v>0.25</v>
+        <v>2.01</v>
       </c>
       <c r="I54">
-        <v>1014773</v>
+        <v>264688</v>
       </c>
       <c r="J54">
-        <v>382.5</v>
+        <v>1023.3</v>
       </c>
       <c r="K54">
-        <v>189.4</v>
+        <v>1721.4</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M54" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55">
-        <v>459.4</v>
+        <v>316.4</v>
       </c>
       <c r="D55">
-        <v>211</v>
+        <v>357.4</v>
       </c>
       <c r="E55">
-        <v>4645.9</v>
+        <v>4818</v>
       </c>
       <c r="F55">
-        <v>2719.3</v>
+        <v>7186.4</v>
       </c>
       <c r="G55">
-        <v>10.11</v>
+        <v>15.23</v>
       </c>
       <c r="H55">
-        <v>0.88</v>
+        <v>2.59</v>
       </c>
       <c r="I55">
-        <v>878334</v>
+        <v>511226</v>
       </c>
       <c r="J55">
-        <v>528.9</v>
+        <v>942.4</v>
       </c>
       <c r="K55">
-        <v>309.6</v>
+        <v>1405.7</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3855,131 +3753,131 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>838.5999999999999</v>
+        <v>401.2</v>
       </c>
       <c r="D56">
-        <v>437.4</v>
+        <v>422.7</v>
       </c>
       <c r="E56">
-        <v>8439.4</v>
+        <v>5990.7</v>
       </c>
       <c r="F56">
-        <v>5006.9</v>
+        <v>7413.1</v>
       </c>
       <c r="G56">
-        <v>10.06</v>
+        <v>14.93</v>
       </c>
       <c r="H56">
-        <v>0.48</v>
+        <v>1.34</v>
       </c>
       <c r="I56">
-        <v>1893107</v>
+        <v>312892</v>
       </c>
       <c r="J56">
-        <v>445.8</v>
+        <v>1914.6</v>
       </c>
       <c r="K56">
-        <v>264.5</v>
+        <v>2369.2</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="N56" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>1498.8</v>
+        <v>597.4</v>
       </c>
       <c r="D57">
-        <v>625.0999999999999</v>
+        <v>397.9</v>
       </c>
       <c r="E57">
-        <v>19215</v>
+        <v>6440.6</v>
       </c>
       <c r="F57">
-        <v>8338.200000000001</v>
+        <v>4986.4</v>
       </c>
       <c r="G57">
-        <v>12.82</v>
+        <v>10.78</v>
       </c>
       <c r="H57">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="I57">
-        <v>1471590</v>
+        <v>306419</v>
       </c>
       <c r="J57">
-        <v>1305.7</v>
+        <v>2101.9</v>
       </c>
       <c r="K57">
-        <v>566.6</v>
+        <v>1627.3</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="N57" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58">
-        <v>2069.4</v>
+        <v>982</v>
       </c>
       <c r="D58">
-        <v>758.0000000000001</v>
+        <v>582.3</v>
       </c>
       <c r="E58">
-        <v>25868.8</v>
+        <v>11960.7</v>
       </c>
       <c r="F58">
-        <v>12184.4</v>
+        <v>9263.6</v>
       </c>
       <c r="G58">
-        <v>12.5</v>
+        <v>12.18</v>
       </c>
       <c r="H58">
-        <v>0.96</v>
+        <v>1.39</v>
       </c>
       <c r="I58">
-        <v>1299555</v>
+        <v>619311</v>
       </c>
       <c r="J58">
-        <v>1990.6</v>
+        <v>1931.3</v>
       </c>
       <c r="K58">
-        <v>937.6</v>
+        <v>1495.8</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3987,131 +3885,131 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>3560.6</v>
+        <v>4700.7</v>
       </c>
       <c r="D59">
-        <v>1347.1</v>
+        <v>1881.4</v>
       </c>
       <c r="E59">
-        <v>47516</v>
+        <v>57077.1</v>
       </c>
       <c r="F59">
-        <v>21279.9</v>
+        <v>32345.4</v>
       </c>
       <c r="G59">
-        <v>13.34</v>
+        <v>12.14</v>
       </c>
       <c r="H59">
-        <v>0.68</v>
+        <v>1.45</v>
       </c>
       <c r="I59">
-        <v>2771145</v>
+        <v>8664134</v>
       </c>
       <c r="J59">
-        <v>1714.7</v>
+        <v>658.8</v>
       </c>
       <c r="K59">
-        <v>767.9</v>
+        <v>373.3</v>
       </c>
       <c r="L59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="N59" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C60">
-        <v>100.2</v>
+        <v>8024.9</v>
       </c>
       <c r="D60">
-        <v>61.1</v>
+        <v>2011.4</v>
       </c>
       <c r="E60">
-        <v>2199</v>
+        <v>99768</v>
       </c>
       <c r="F60">
-        <v>1313.3</v>
+        <v>37504.9</v>
       </c>
       <c r="G60">
-        <v>21.95</v>
+        <v>12.43</v>
       </c>
       <c r="H60">
-        <v>0.18</v>
+        <v>1.25</v>
       </c>
       <c r="I60">
-        <v>308093</v>
+        <v>8607487</v>
       </c>
       <c r="J60">
-        <v>713.7</v>
+        <v>1159.1</v>
       </c>
       <c r="K60">
-        <v>426.3</v>
+        <v>435.7</v>
       </c>
       <c r="L60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>228.2</v>
+        <v>12711.9</v>
       </c>
       <c r="D61">
-        <v>112.4</v>
+        <v>3073.6</v>
       </c>
       <c r="E61">
-        <v>3516.9</v>
+        <v>159269.7</v>
       </c>
       <c r="F61">
-        <v>2166.7</v>
+        <v>57279.2</v>
       </c>
       <c r="G61">
-        <v>15.41</v>
+        <v>12.53</v>
       </c>
       <c r="H61">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="I61">
-        <v>313827</v>
+        <v>17271621</v>
       </c>
       <c r="J61">
-        <v>1120.6</v>
+        <v>922.1</v>
       </c>
       <c r="K61">
-        <v>690.4</v>
+        <v>331.6</v>
       </c>
       <c r="L61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M61" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N61" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4119,131 +4017,131 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>314</v>
+        <v>132.4</v>
       </c>
       <c r="D62">
-        <v>145.1</v>
+        <v>406.3</v>
       </c>
       <c r="E62">
-        <v>5363.599999999999</v>
+        <v>2661.6</v>
       </c>
       <c r="F62">
-        <v>3221</v>
+        <v>10018.2</v>
       </c>
       <c r="G62">
-        <v>17.08</v>
+        <v>20.1</v>
       </c>
       <c r="H62">
-        <v>1.62</v>
+        <v>3.44</v>
       </c>
       <c r="I62">
-        <v>621920</v>
+        <v>2629547</v>
       </c>
       <c r="J62">
-        <v>862.4</v>
+        <v>101.2</v>
       </c>
       <c r="K62">
-        <v>517.9</v>
+        <v>381</v>
       </c>
       <c r="L62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N62" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>160.8</v>
+        <v>281.6</v>
       </c>
       <c r="D63">
-        <v>70.8</v>
+        <v>661.7</v>
       </c>
       <c r="E63">
-        <v>2095.8</v>
+        <v>4991.6</v>
       </c>
       <c r="F63">
-        <v>1419.4</v>
+        <v>15143.2</v>
       </c>
       <c r="G63">
-        <v>13.03</v>
+        <v>17.73</v>
       </c>
       <c r="H63">
-        <v>2.15</v>
+        <v>3.62</v>
       </c>
       <c r="I63">
-        <v>246538</v>
+        <v>2692859</v>
       </c>
       <c r="J63">
-        <v>850.1</v>
+        <v>185.4</v>
       </c>
       <c r="K63">
-        <v>575.7</v>
+        <v>562.3</v>
       </c>
       <c r="L63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="N63" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>283.8</v>
+        <v>352.5</v>
       </c>
       <c r="D64">
-        <v>97.99999999999999</v>
+        <v>789.6999999999999</v>
       </c>
       <c r="E64">
-        <v>3949.7</v>
+        <v>6039.2</v>
       </c>
       <c r="F64">
-        <v>1788.5</v>
+        <v>19128.3</v>
       </c>
       <c r="G64">
-        <v>13.92</v>
+        <v>17.13</v>
       </c>
       <c r="H64">
-        <v>1.11</v>
+        <v>4.9</v>
       </c>
       <c r="I64">
-        <v>264688</v>
+        <v>5322406</v>
       </c>
       <c r="J64">
-        <v>1492.2</v>
+        <v>113.5</v>
       </c>
       <c r="K64">
-        <v>675.7</v>
+        <v>359.4</v>
       </c>
       <c r="L64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="N64" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4251,131 +4149,131 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>438.6</v>
+        <v>22209.5</v>
       </c>
       <c r="D65">
-        <v>143.5</v>
+        <v>4321.2</v>
       </c>
       <c r="E65">
-        <v>6007.7</v>
+        <v>300804.1</v>
       </c>
       <c r="F65">
-        <v>2785.3</v>
+        <v>76674.60000000001</v>
       </c>
       <c r="G65">
-        <v>13.7</v>
+        <v>13.54</v>
       </c>
       <c r="H65">
-        <v>1.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I65">
-        <v>511226</v>
+        <v>19380657</v>
       </c>
       <c r="J65">
-        <v>1175.2</v>
+        <v>1552.1</v>
       </c>
       <c r="K65">
-        <v>544.8</v>
+        <v>395.6</v>
       </c>
       <c r="L65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M65" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="N65" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>288.4</v>
+        <v>35363.6</v>
       </c>
       <c r="D66">
-        <v>80.90000000000001</v>
+        <v>4793.7</v>
       </c>
       <c r="E66">
-        <v>3640.400000000001</v>
+        <v>475556.1</v>
       </c>
       <c r="F66">
-        <v>1393.6</v>
+        <v>86730.10000000001</v>
       </c>
       <c r="G66">
-        <v>12.62</v>
+        <v>13.45</v>
       </c>
       <c r="H66">
-        <v>1.01</v>
+        <v>0.55</v>
       </c>
       <c r="I66">
-        <v>312892</v>
+        <v>18305320</v>
       </c>
       <c r="J66">
-        <v>1163.5</v>
+        <v>2597.9</v>
       </c>
       <c r="K66">
-        <v>445.4</v>
+        <v>473.8</v>
       </c>
       <c r="L66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M66" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N66" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>521.2</v>
+        <v>57567.5</v>
       </c>
       <c r="D67">
-        <v>158.2</v>
+        <v>7701.1</v>
       </c>
       <c r="E67">
-        <v>5686.599999999999</v>
+        <v>814378.8</v>
       </c>
       <c r="F67">
-        <v>2367.4</v>
+        <v>135318.7</v>
       </c>
       <c r="G67">
-        <v>10.91</v>
+        <v>14.15</v>
       </c>
       <c r="H67">
-        <v>0.9399999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="I67">
-        <v>306419</v>
+        <v>37685977</v>
       </c>
       <c r="J67">
-        <v>1855.8</v>
+        <v>2161</v>
       </c>
       <c r="K67">
-        <v>772.6</v>
+        <v>359.1</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M67" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N67" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4383,131 +4281,131 @@
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>788.6</v>
+        <v>4726.4</v>
       </c>
       <c r="D68">
-        <v>160.1</v>
+        <v>1729.7</v>
       </c>
       <c r="E68">
-        <v>9356.199999999999</v>
+        <v>55190.8</v>
       </c>
       <c r="F68">
-        <v>2887.2</v>
+        <v>30374.6</v>
       </c>
       <c r="G68">
-        <v>11.86</v>
+        <v>11.68</v>
       </c>
       <c r="H68">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
       <c r="I68">
-        <v>619311</v>
+        <v>5359083</v>
       </c>
       <c r="J68">
-        <v>1510.7</v>
+        <v>1029.9</v>
       </c>
       <c r="K68">
-        <v>466.2</v>
+        <v>566.8</v>
       </c>
       <c r="L68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M68" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>5709.4</v>
+        <v>4588.6</v>
       </c>
       <c r="D69">
-        <v>1060.7</v>
+        <v>2103.5</v>
       </c>
       <c r="E69">
-        <v>65278.8</v>
+        <v>61091.9</v>
       </c>
       <c r="F69">
-        <v>18124.5</v>
+        <v>38207.4</v>
       </c>
       <c r="G69">
-        <v>11.43</v>
+        <v>13.31</v>
       </c>
       <c r="H69">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="I69">
-        <v>8664134</v>
+        <v>4829271</v>
       </c>
       <c r="J69">
-        <v>753.4</v>
+        <v>1265</v>
       </c>
       <c r="K69">
-        <v>209.2</v>
+        <v>791.2</v>
       </c>
       <c r="L69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N69" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>9518.799999999999</v>
+        <v>9269.700000000001</v>
       </c>
       <c r="D70">
-        <v>1417</v>
+        <v>3166.3</v>
       </c>
       <c r="E70">
-        <v>104431.1</v>
+        <v>117064.3</v>
       </c>
       <c r="F70">
-        <v>20808.4</v>
+        <v>56955.9</v>
       </c>
       <c r="G70">
-        <v>10.97</v>
+        <v>12.63</v>
       </c>
       <c r="H70">
-        <v>0.48</v>
+        <v>1.36</v>
       </c>
       <c r="I70">
-        <v>8607487</v>
+        <v>10188354</v>
       </c>
       <c r="J70">
-        <v>1213.3</v>
+        <v>1149</v>
       </c>
       <c r="K70">
-        <v>241.7</v>
+        <v>559</v>
       </c>
       <c r="L70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N70" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4515,131 +4413,131 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C71">
-        <v>15133</v>
+        <v>15437.2</v>
       </c>
       <c r="D71">
-        <v>2378.2</v>
+        <v>3488.9</v>
       </c>
       <c r="E71">
-        <v>169793.3</v>
+        <v>209967.7</v>
       </c>
       <c r="F71">
-        <v>39057.2</v>
+        <v>61010.4</v>
       </c>
       <c r="G71">
-        <v>11.22</v>
+        <v>13.6</v>
       </c>
       <c r="H71">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="I71">
-        <v>17271621</v>
+        <v>9777814</v>
       </c>
       <c r="J71">
-        <v>983.1</v>
+        <v>2147.4</v>
       </c>
       <c r="K71">
-        <v>226.1</v>
+        <v>624</v>
       </c>
       <c r="L71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N71" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C72">
-        <v>297.6</v>
+        <v>22019.1</v>
       </c>
       <c r="D72">
-        <v>236.9</v>
+        <v>3977</v>
       </c>
       <c r="E72">
-        <v>4613.7</v>
+        <v>271265.2</v>
       </c>
       <c r="F72">
-        <v>3964.2</v>
+        <v>70719.5</v>
       </c>
       <c r="G72">
-        <v>15.5</v>
+        <v>12.32</v>
       </c>
       <c r="H72">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="I72">
-        <v>2629547</v>
+        <v>9416141</v>
       </c>
       <c r="J72">
-        <v>175.5</v>
+        <v>2880.9</v>
       </c>
       <c r="K72">
-        <v>150.8</v>
+        <v>751</v>
       </c>
       <c r="L72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N72" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C73">
-        <v>458</v>
+        <v>37406.8</v>
       </c>
       <c r="D73">
-        <v>245.1</v>
+        <v>6255.4</v>
       </c>
       <c r="E73">
-        <v>6373.5</v>
+        <v>493743.2</v>
       </c>
       <c r="F73">
-        <v>3249.8</v>
+        <v>106724.6</v>
       </c>
       <c r="G73">
-        <v>13.92</v>
+        <v>13.2</v>
       </c>
       <c r="H73">
-        <v>0.23</v>
+        <v>0.55</v>
       </c>
       <c r="I73">
-        <v>2692859</v>
+        <v>19193955</v>
       </c>
       <c r="J73">
-        <v>236.7</v>
+        <v>2572.4</v>
       </c>
       <c r="K73">
-        <v>120.7</v>
+        <v>556</v>
       </c>
       <c r="L73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M73" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="N73" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4647,131 +4545,131 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>745.5999999999999</v>
+        <v>4307.4</v>
       </c>
       <c r="D74">
-        <v>458.6</v>
+        <v>2069</v>
       </c>
       <c r="E74">
-        <v>10587.1</v>
+        <v>55173.2</v>
       </c>
       <c r="F74">
-        <v>6956.299999999999</v>
+        <v>29780.3</v>
       </c>
       <c r="G74">
-        <v>14.2</v>
+        <v>12.81</v>
       </c>
       <c r="H74">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="I74">
-        <v>5322406</v>
+        <v>3525299</v>
       </c>
       <c r="J74">
-        <v>198.9</v>
+        <v>1565.1</v>
       </c>
       <c r="K74">
-        <v>130.7</v>
+        <v>844.8</v>
       </c>
       <c r="L74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M74" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N74" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C75">
-        <v>23745.2</v>
+        <v>7416.3</v>
       </c>
       <c r="D75">
-        <v>4664.4</v>
+        <v>2151.1</v>
       </c>
       <c r="E75">
-        <v>327271.7</v>
+        <v>101305.5</v>
       </c>
       <c r="F75">
-        <v>69810.8</v>
+        <v>36206.9</v>
       </c>
       <c r="G75">
-        <v>13.78</v>
+        <v>13.66</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="I75">
-        <v>19380657</v>
+        <v>3358945</v>
       </c>
       <c r="J75">
-        <v>1688.7</v>
+        <v>3016</v>
       </c>
       <c r="K75">
-        <v>360.2</v>
+        <v>1077.9</v>
       </c>
       <c r="L75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N75" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C76">
-        <v>38665.60000000001</v>
+        <v>11678.3</v>
       </c>
       <c r="D76">
-        <v>5760.6</v>
+        <v>3475.4</v>
       </c>
       <c r="E76">
-        <v>500768.4</v>
+        <v>158468.3</v>
       </c>
       <c r="F76">
-        <v>83613.60000000001</v>
+        <v>55142.5</v>
       </c>
       <c r="G76">
-        <v>12.95</v>
+        <v>13.57</v>
       </c>
       <c r="H76">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="I76">
-        <v>18305320</v>
+        <v>6884244</v>
       </c>
       <c r="J76">
-        <v>2735.6</v>
+        <v>2301.9</v>
       </c>
       <c r="K76">
-        <v>456.8</v>
+        <v>801</v>
       </c>
       <c r="L76" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M76" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="N76" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4779,131 +4677,131 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C77">
-        <v>62386</v>
+        <v>2818.5</v>
       </c>
       <c r="D77">
-        <v>10161.1</v>
+        <v>1233.1</v>
       </c>
       <c r="E77">
-        <v>866863.7999999998</v>
+        <v>37803.7</v>
       </c>
       <c r="F77">
-        <v>153749</v>
+        <v>23459</v>
       </c>
       <c r="G77">
-        <v>13.9</v>
+        <v>13.41</v>
       </c>
       <c r="H77">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="I77">
-        <v>37685977</v>
+        <v>2772377</v>
       </c>
       <c r="J77">
-        <v>2300.2</v>
+        <v>1363.6</v>
       </c>
       <c r="K77">
-        <v>408</v>
+        <v>846.2</v>
       </c>
       <c r="L77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M77" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="N77" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C78">
-        <v>4282.6</v>
+        <v>3200.1</v>
       </c>
       <c r="D78">
-        <v>797.1</v>
+        <v>1475.2</v>
       </c>
       <c r="E78">
-        <v>47928.9</v>
+        <v>39284.1</v>
       </c>
       <c r="F78">
-        <v>12768.7</v>
+        <v>29043.9</v>
       </c>
       <c r="G78">
-        <v>11.19</v>
+        <v>12.28</v>
       </c>
       <c r="H78">
-        <v>0.76</v>
+        <v>2.33</v>
       </c>
       <c r="I78">
-        <v>5359083</v>
+        <v>2657884</v>
       </c>
       <c r="J78">
-        <v>894.3</v>
+        <v>1478</v>
       </c>
       <c r="K78">
-        <v>238.3</v>
+        <v>1092.7</v>
       </c>
       <c r="L78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M78" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="N78" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C79">
-        <v>4917.2</v>
+        <v>5997.599999999999</v>
       </c>
       <c r="D79">
-        <v>1078.6</v>
+        <v>2056.7</v>
       </c>
       <c r="E79">
-        <v>58301.8</v>
+        <v>78357</v>
       </c>
       <c r="F79">
-        <v>15773.8</v>
+        <v>40617.1</v>
       </c>
       <c r="G79">
-        <v>11.86</v>
+        <v>13.06</v>
       </c>
       <c r="H79">
-        <v>0.49</v>
+        <v>1.71</v>
       </c>
       <c r="I79">
-        <v>4829271</v>
+        <v>5430261</v>
       </c>
       <c r="J79">
-        <v>1207.3</v>
+        <v>1443</v>
       </c>
       <c r="K79">
-        <v>326.6</v>
+        <v>748</v>
       </c>
       <c r="L79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M79" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N79" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4911,131 +4809,131 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C80">
-        <v>9191.799999999999</v>
+        <v>1302.6</v>
       </c>
       <c r="D80">
-        <v>1651.4</v>
+        <v>509.7</v>
       </c>
       <c r="E80">
-        <v>108795.7</v>
+        <v>14898.9</v>
       </c>
       <c r="F80">
-        <v>23423.4</v>
+        <v>9501.700000000001</v>
       </c>
       <c r="G80">
-        <v>11.84</v>
+        <v>11.44</v>
       </c>
       <c r="H80">
-        <v>0.35</v>
+        <v>2.02</v>
       </c>
       <c r="I80">
-        <v>10188354</v>
+        <v>1030802</v>
       </c>
       <c r="J80">
-        <v>1067.8</v>
+        <v>1445.4</v>
       </c>
       <c r="K80">
-        <v>229.9</v>
+        <v>921.8</v>
       </c>
       <c r="L80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M80" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C81">
-        <v>13183.4</v>
+        <v>1421.7</v>
       </c>
       <c r="D81">
-        <v>2669.8</v>
+        <v>770.2</v>
       </c>
       <c r="E81">
-        <v>170212.7</v>
+        <v>18533.4</v>
       </c>
       <c r="F81">
-        <v>33669.7</v>
+        <v>14481.1</v>
       </c>
       <c r="G81">
-        <v>12.91</v>
+        <v>13.04</v>
       </c>
       <c r="H81">
-        <v>0.05</v>
+        <v>2.02</v>
       </c>
       <c r="I81">
-        <v>9777814</v>
+        <v>1046472</v>
       </c>
       <c r="J81">
-        <v>1740.8</v>
+        <v>1771</v>
       </c>
       <c r="K81">
-        <v>344.3</v>
+        <v>1383.8</v>
       </c>
       <c r="L81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M81" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="N81" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C82">
-        <v>21703.4</v>
+        <v>2702.2</v>
       </c>
       <c r="D82">
-        <v>3237</v>
+        <v>936.6</v>
       </c>
       <c r="E82">
-        <v>273195.1</v>
+        <v>33683.2</v>
       </c>
       <c r="F82">
-        <v>43481.5</v>
+        <v>17846.1</v>
       </c>
       <c r="G82">
-        <v>12.59</v>
+        <v>12.47</v>
       </c>
       <c r="H82">
-        <v>0.11</v>
+        <v>1.69</v>
       </c>
       <c r="I82">
-        <v>9416141</v>
+        <v>2077274</v>
       </c>
       <c r="J82">
-        <v>2901.3</v>
+        <v>1621.5</v>
       </c>
       <c r="K82">
-        <v>461.8</v>
+        <v>859.1</v>
       </c>
       <c r="L82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N82" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5043,131 +4941,131 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>34886.8</v>
+        <v>24940.8</v>
       </c>
       <c r="D83">
-        <v>5677.3</v>
+        <v>3782.5</v>
       </c>
       <c r="E83">
-        <v>463350.2999999999</v>
+        <v>313215.4</v>
       </c>
       <c r="F83">
-        <v>75790.60000000001</v>
+        <v>69500.7</v>
       </c>
       <c r="G83">
-        <v>13.28</v>
+        <v>12.56</v>
       </c>
       <c r="H83">
-        <v>0.01</v>
+        <v>0.76</v>
       </c>
       <c r="I83">
-        <v>19193955</v>
+        <v>23724352</v>
       </c>
       <c r="J83">
-        <v>2414</v>
+        <v>1320.2</v>
       </c>
       <c r="K83">
-        <v>394.9</v>
+        <v>293</v>
       </c>
       <c r="L83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M83" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N83" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C84">
-        <v>2858.6</v>
+        <v>31073.9</v>
       </c>
       <c r="D84">
-        <v>994.3000000000001</v>
+        <v>4452.5</v>
       </c>
       <c r="E84">
-        <v>35636.3</v>
+        <v>404776.2</v>
       </c>
       <c r="F84">
-        <v>12575</v>
+        <v>80904.39999999999</v>
       </c>
       <c r="G84">
-        <v>12.47</v>
+        <v>13.03</v>
       </c>
       <c r="H84">
-        <v>0.04</v>
+        <v>0.64</v>
       </c>
       <c r="I84">
-        <v>3525299</v>
+        <v>23021513</v>
       </c>
       <c r="J84">
-        <v>1010.9</v>
+        <v>1758.3</v>
       </c>
       <c r="K84">
-        <v>356.7</v>
+        <v>351.4</v>
       </c>
       <c r="L84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M84" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="N84" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>6131.799999999999</v>
+        <v>55993.5</v>
       </c>
       <c r="D85">
-        <v>1704.5</v>
+        <v>6817.299999999999</v>
       </c>
       <c r="E85">
-        <v>79073.59999999999</v>
+        <v>735502.8</v>
       </c>
       <c r="F85">
-        <v>23684.9</v>
+        <v>118744.9</v>
       </c>
       <c r="G85">
-        <v>12.9</v>
+        <v>13.14</v>
       </c>
       <c r="H85">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="I85">
-        <v>3358945</v>
+        <v>46745865</v>
       </c>
       <c r="J85">
-        <v>2354.1</v>
+        <v>1573.4</v>
       </c>
       <c r="K85">
-        <v>705.1</v>
+        <v>254</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M85" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5175,131 +5073,131 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>8760.200000000001</v>
+        <v>2714.7</v>
       </c>
       <c r="D86">
-        <v>2330.5</v>
+        <v>1144.9</v>
       </c>
       <c r="E86">
-        <v>114456.5</v>
+        <v>28316.5</v>
       </c>
       <c r="F86">
-        <v>34367.8</v>
+        <v>20385.1</v>
       </c>
       <c r="G86">
-        <v>13.07</v>
+        <v>10.43</v>
       </c>
       <c r="H86">
-        <v>0.35</v>
+        <v>2.19</v>
       </c>
       <c r="I86">
-        <v>6884244</v>
+        <v>5062356</v>
       </c>
       <c r="J86">
-        <v>1662.6</v>
+        <v>559.4</v>
       </c>
       <c r="K86">
-        <v>499.2</v>
+        <v>402.7</v>
       </c>
       <c r="L86" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N86" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C87">
-        <v>2457.6</v>
+        <v>4504.3</v>
       </c>
       <c r="D87">
-        <v>582.6999999999999</v>
+        <v>1532.4</v>
       </c>
       <c r="E87">
-        <v>31991.4</v>
+        <v>59247.7</v>
       </c>
       <c r="F87">
-        <v>9693.9</v>
+        <v>29181.4</v>
       </c>
       <c r="G87">
-        <v>13.02</v>
+        <v>13.15</v>
       </c>
       <c r="H87">
-        <v>0.6899999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="I87">
-        <v>2772377</v>
+        <v>5164280</v>
       </c>
       <c r="J87">
-        <v>1153.9</v>
+        <v>1147.3</v>
       </c>
       <c r="K87">
-        <v>349.7</v>
+        <v>565.1</v>
       </c>
       <c r="L87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M87" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="N87" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88">
-        <v>3420</v>
+        <v>7131.8</v>
       </c>
       <c r="D88">
-        <v>496.4</v>
+        <v>2161.4</v>
       </c>
       <c r="E88">
-        <v>38055.2</v>
+        <v>86381.5</v>
       </c>
       <c r="F88">
-        <v>7216.4</v>
+        <v>40948</v>
       </c>
       <c r="G88">
-        <v>11.13</v>
+        <v>12.11</v>
       </c>
       <c r="H88">
-        <v>0.43</v>
+        <v>1.59</v>
       </c>
       <c r="I88">
-        <v>2657884</v>
+        <v>10226636</v>
       </c>
       <c r="J88">
-        <v>1431.8</v>
+        <v>844.7</v>
       </c>
       <c r="K88">
-        <v>271.5</v>
+        <v>400.4</v>
       </c>
       <c r="L88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M88" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="N88" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5307,571 +5205,131 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>5834.199999999999</v>
+        <v>2200.7</v>
       </c>
       <c r="D89">
-        <v>865.8000000000001</v>
+        <v>1046.7</v>
       </c>
       <c r="E89">
-        <v>71073.8</v>
+        <v>22962.6</v>
       </c>
       <c r="F89">
-        <v>11401.1</v>
+        <v>22591.4</v>
       </c>
       <c r="G89">
-        <v>12.18</v>
+        <v>10.43</v>
       </c>
       <c r="H89">
-        <v>0.13</v>
+        <v>3.6</v>
       </c>
       <c r="I89">
-        <v>5430261</v>
+        <v>4186812</v>
       </c>
       <c r="J89">
-        <v>1308.8</v>
+        <v>548.5</v>
       </c>
       <c r="K89">
-        <v>210</v>
+        <v>539.6</v>
       </c>
       <c r="L89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="N89" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C90">
-        <v>1168.4</v>
+        <v>3745</v>
       </c>
       <c r="D90">
-        <v>228.4</v>
+        <v>1392.3</v>
       </c>
       <c r="E90">
-        <v>12666.4</v>
+        <v>46293.3</v>
       </c>
       <c r="F90">
-        <v>3540.4</v>
+        <v>30709.8</v>
       </c>
       <c r="G90">
-        <v>10.84</v>
+        <v>12.36</v>
       </c>
       <c r="H90">
-        <v>0.76</v>
+        <v>2.63</v>
       </c>
       <c r="I90">
-        <v>1030802</v>
+        <v>4190064</v>
       </c>
       <c r="J90">
-        <v>1228.8</v>
+        <v>1104.8</v>
       </c>
       <c r="K90">
-        <v>343.5</v>
+        <v>732.9</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M90" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="N90" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C91">
-        <v>1514.8</v>
+        <v>5897.3</v>
       </c>
       <c r="D91">
-        <v>276.6</v>
+        <v>1925.3</v>
       </c>
       <c r="E91">
-        <v>16816.5</v>
+        <v>69014.39999999999</v>
       </c>
       <c r="F91">
-        <v>4708.200000000001</v>
+        <v>42723</v>
       </c>
       <c r="G91">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="H91">
-        <v>0.92</v>
+        <v>2.58</v>
       </c>
       <c r="I91">
-        <v>1046472</v>
+        <v>8376876</v>
       </c>
       <c r="J91">
-        <v>1607</v>
+        <v>823.9</v>
       </c>
       <c r="K91">
-        <v>449.9</v>
+        <v>510</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M91" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N91" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92">
-        <v>2671</v>
-      </c>
-      <c r="D92">
-        <v>394.2</v>
-      </c>
-      <c r="E92">
-        <v>29858.7</v>
-      </c>
-      <c r="F92">
-        <v>6247.2</v>
-      </c>
-      <c r="G92">
-        <v>11.18</v>
-      </c>
-      <c r="H92">
-        <v>0.6</v>
-      </c>
-      <c r="I92">
-        <v>2077274</v>
-      </c>
-      <c r="J92">
-        <v>1437.4</v>
-      </c>
-      <c r="K92">
-        <v>300.7</v>
-      </c>
-      <c r="L92" t="s">
-        <v>141</v>
-      </c>
-      <c r="M92" t="s">
-        <v>241</v>
-      </c>
-      <c r="N92" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93">
-        <v>21162.2</v>
-      </c>
-      <c r="D93">
-        <v>3315.8</v>
-      </c>
-      <c r="E93">
-        <v>277662.6</v>
-      </c>
-      <c r="F93">
-        <v>48046.60000000001</v>
-      </c>
-      <c r="G93">
-        <v>13.12</v>
-      </c>
-      <c r="H93">
-        <v>0.19</v>
-      </c>
-      <c r="I93">
-        <v>23724352</v>
-      </c>
-      <c r="J93">
-        <v>1170.4</v>
-      </c>
-      <c r="K93">
-        <v>202.5</v>
-      </c>
-      <c r="L93" t="s">
-        <v>142</v>
-      </c>
-      <c r="M93" t="s">
-        <v>242</v>
-      </c>
-      <c r="N93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94">
-        <v>29097.8</v>
-      </c>
-      <c r="D94">
-        <v>3983.6</v>
-      </c>
-      <c r="E94">
-        <v>366059.2</v>
-      </c>
-      <c r="F94">
-        <v>54697.7</v>
-      </c>
-      <c r="G94">
-        <v>12.58</v>
-      </c>
-      <c r="H94">
-        <v>0.14</v>
-      </c>
-      <c r="I94">
-        <v>23021513</v>
-      </c>
-      <c r="J94">
-        <v>1590.1</v>
-      </c>
-      <c r="K94">
-        <v>237.6</v>
-      </c>
-      <c r="L94" t="s">
-        <v>143</v>
-      </c>
-      <c r="M94" t="s">
-        <v>243</v>
-      </c>
-      <c r="N94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95">
-        <v>50234</v>
-      </c>
-      <c r="D95">
-        <v>6800.1</v>
-      </c>
-      <c r="E95">
-        <v>659751.9999999999</v>
-      </c>
-      <c r="F95">
-        <v>99568.60000000001</v>
-      </c>
-      <c r="G95">
-        <v>13.13</v>
-      </c>
-      <c r="H95">
-        <v>0.18</v>
-      </c>
-      <c r="I95">
-        <v>46745865</v>
-      </c>
-      <c r="J95">
-        <v>1411.4</v>
-      </c>
-      <c r="K95">
-        <v>213</v>
-      </c>
-      <c r="L95" t="s">
-        <v>144</v>
-      </c>
-      <c r="M95" t="s">
-        <v>244</v>
-      </c>
-      <c r="N95" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96">
-        <v>2286.8</v>
-      </c>
-      <c r="D96">
-        <v>534.8</v>
-      </c>
-      <c r="E96">
-        <v>25205.2</v>
-      </c>
-      <c r="F96">
-        <v>5836.4</v>
-      </c>
-      <c r="G96">
-        <v>11.02</v>
-      </c>
-      <c r="H96">
-        <v>0.02</v>
-      </c>
-      <c r="I96">
-        <v>5062356</v>
-      </c>
-      <c r="J96">
-        <v>497.9</v>
-      </c>
-      <c r="K96">
-        <v>115.3</v>
-      </c>
-      <c r="L96" t="s">
-        <v>145</v>
-      </c>
-      <c r="M96" t="s">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97">
-        <v>3894</v>
-      </c>
-      <c r="D97">
-        <v>610.1999999999999</v>
-      </c>
-      <c r="E97">
-        <v>40280.10000000001</v>
-      </c>
-      <c r="F97">
-        <v>9844.400000000001</v>
-      </c>
-      <c r="G97">
-        <v>10.34</v>
-      </c>
-      <c r="H97">
-        <v>0.79</v>
-      </c>
-      <c r="I97">
-        <v>5164280</v>
-      </c>
-      <c r="J97">
-        <v>780</v>
-      </c>
-      <c r="K97">
-        <v>190.6</v>
-      </c>
-      <c r="L97" t="s">
-        <v>146</v>
-      </c>
-      <c r="M97" t="s">
-        <v>246</v>
-      </c>
-      <c r="N97" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98">
-        <v>6067.200000000001</v>
-      </c>
-      <c r="D98">
-        <v>971.7</v>
-      </c>
-      <c r="E98">
-        <v>62381.3</v>
-      </c>
-      <c r="F98">
-        <v>12559.5</v>
-      </c>
-      <c r="G98">
-        <v>10.28</v>
-      </c>
-      <c r="H98">
-        <v>0.37</v>
-      </c>
-      <c r="I98">
-        <v>10226636</v>
-      </c>
-      <c r="J98">
-        <v>610</v>
-      </c>
-      <c r="K98">
-        <v>122.8</v>
-      </c>
-      <c r="L98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" t="s">
-        <v>247</v>
-      </c>
-      <c r="N98" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99">
-        <v>2371</v>
-      </c>
-      <c r="D99">
-        <v>306.6</v>
-      </c>
-      <c r="E99">
-        <v>24851</v>
-      </c>
-      <c r="F99">
-        <v>4753.8</v>
-      </c>
-      <c r="G99">
-        <v>10.48</v>
-      </c>
-      <c r="H99">
-        <v>0.58</v>
-      </c>
-      <c r="I99">
-        <v>4186812</v>
-      </c>
-      <c r="J99">
-        <v>593.6</v>
-      </c>
-      <c r="K99">
-        <v>113.5</v>
-      </c>
-      <c r="L99" t="s">
-        <v>148</v>
-      </c>
-      <c r="M99" t="s">
-        <v>248</v>
-      </c>
-      <c r="N99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100">
-        <v>3960.6</v>
-      </c>
-      <c r="D100">
-        <v>559.4</v>
-      </c>
-      <c r="E100">
-        <v>41574.8</v>
-      </c>
-      <c r="F100">
-        <v>10975.6</v>
-      </c>
-      <c r="G100">
-        <v>10.5</v>
-      </c>
-      <c r="H100">
-        <v>1.13</v>
-      </c>
-      <c r="I100">
-        <v>4190064</v>
-      </c>
-      <c r="J100">
-        <v>992.2</v>
-      </c>
-      <c r="K100">
-        <v>261.9</v>
-      </c>
-      <c r="L100" t="s">
-        <v>149</v>
-      </c>
-      <c r="M100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101">
-        <v>6227</v>
-      </c>
-      <c r="D101">
-        <v>784.7</v>
-      </c>
-      <c r="E101">
-        <v>64630.2</v>
-      </c>
-      <c r="F101">
-        <v>14735.7</v>
-      </c>
-      <c r="G101">
-        <v>10.38</v>
-      </c>
-      <c r="H101">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I101">
-        <v>8376876</v>
-      </c>
-      <c r="J101">
-        <v>771.5</v>
-      </c>
-      <c r="K101">
-        <v>175.9</v>
-      </c>
-      <c r="L101" t="s">
-        <v>150</v>
-      </c>
-      <c r="M101" t="s">
-        <v>250</v>
-      </c>
-      <c r="N101" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
